--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3493599.944425606</v>
+        <v>-3494426.237260099</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3232064.881861076</v>
+        <v>3232064.881861077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.8716252173193</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.882942175001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.864246219529</v>
+        <v>266.8642462195289</v>
       </c>
       <c r="E11" t="n">
         <v>288.6063837894345</v>
       </c>
       <c r="F11" t="n">
-        <v>276.7088581802736</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>32.52016112297662</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.6087210113935</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.57772831531518</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.547192606669</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>117.4676296620864</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.0608464255998</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.3780024574983</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.6781019354552</v>
       </c>
       <c r="X11" t="n">
-        <v>275.9783601682019</v>
+        <v>275.9783601682018</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.3749579644007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>24.9144061384362</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>96.08621347328979</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.336743779592181</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.55438923720616</v>
+        <v>99.73757267836648</v>
       </c>
       <c r="T12" t="n">
-        <v>83.37638701111986</v>
+        <v>185.6078659166395</v>
       </c>
       <c r="U12" t="n">
         <v>216.2904148768182</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>123.8801874206296</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>136.6712311735033</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>93.70633933546362</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>88.36463418139722</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.48833609201635</v>
+        <v>79.4883360920163</v>
       </c>
       <c r="C13" t="n">
-        <v>65.68833093741684</v>
+        <v>65.68833093741904</v>
       </c>
       <c r="D13" t="n">
-        <v>49.30969533499523</v>
+        <v>49.30969533499517</v>
       </c>
       <c r="E13" t="n">
-        <v>48.25744519077467</v>
+        <v>48.25744519077462</v>
       </c>
       <c r="F13" t="n">
-        <v>48.72436951896135</v>
+        <v>48.72436951896093</v>
       </c>
       <c r="G13" t="n">
-        <v>64.75147754526343</v>
+        <v>64.75147754526337</v>
       </c>
       <c r="H13" t="n">
-        <v>53.34609793795932</v>
+        <v>53.34609793795926</v>
       </c>
       <c r="I13" t="n">
-        <v>33.08368730955451</v>
+        <v>33.08368730955445</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66232683265958</v>
+        <v>34.6623268326595</v>
       </c>
       <c r="S13" t="n">
-        <v>105.0262857884477</v>
+        <v>105.026285788447</v>
       </c>
       <c r="T13" t="n">
         <v>127.5577801408552</v>
       </c>
       <c r="U13" t="n">
-        <v>182.0733530450869</v>
+        <v>182.0733530450871</v>
       </c>
       <c r="V13" t="n">
         <v>155.8964724916419</v>
       </c>
       <c r="W13" t="n">
-        <v>181.0633585622552</v>
+        <v>181.0633585622551</v>
       </c>
       <c r="X13" t="n">
         <v>126.7084605580583</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.583328314126</v>
+        <v>117.5833283141259</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.882942175001</v>
       </c>
       <c r="D14" t="n">
-        <v>266.864246219529</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.7781998774117</v>
+        <v>115.385363042094</v>
       </c>
       <c r="G14" t="n">
-        <v>290.3964405200255</v>
+        <v>309.1594978745046</v>
       </c>
       <c r="H14" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I14" t="n">
-        <v>47.57772831531528</v>
+        <v>47.57772831531524</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.54719260666907</v>
       </c>
       <c r="T14" t="n">
         <v>117.4676296620864</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.0608464255998</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W14" t="n">
         <v>256.6781019354553</v>
@@ -1673,7 +1673,7 @@
         <v>275.9783601682019</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.3749579644007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I15" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S15" t="n">
-        <v>50.27022999726478</v>
+        <v>145.7858681427258</v>
       </c>
       <c r="T15" t="n">
-        <v>185.6078659166395</v>
+        <v>90.09222777117834</v>
       </c>
       <c r="U15" t="n">
         <v>216.2904148768182</v>
@@ -1783,7 +1783,7 @@
         <v>53.34609793795932</v>
       </c>
       <c r="I16" t="n">
-        <v>33.0836873095542</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66232683265956</v>
+        <v>34.66232683265957</v>
       </c>
       <c r="S16" t="n">
         <v>105.0262857884477</v>
@@ -1850,7 +1850,7 @@
         <v>196.3170536128599</v>
       </c>
       <c r="E17" t="n">
-        <v>218.0591911827655</v>
+        <v>218.0591911827648</v>
       </c>
       <c r="F17" t="n">
         <v>237.2310072707426</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.92043705541735</v>
+        <v>46.92043705541736</v>
       </c>
       <c r="U17" t="n">
-        <v>79.5136538189317</v>
+        <v>79.51365381893078</v>
       </c>
       <c r="V17" t="n">
         <v>160.8308098508293</v>
@@ -1941,7 +1941,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I18" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.85006423600238</v>
       </c>
       <c r="S18" t="n">
-        <v>91.1202942332672</v>
+        <v>145.7858681427258</v>
       </c>
       <c r="T18" t="n">
-        <v>185.6078659166395</v>
+        <v>90.09222777117834</v>
       </c>
       <c r="U18" t="n">
         <v>216.2904148768182</v>
@@ -2002,7 +2002,7 @@
         <v>8.941143485347283</v>
       </c>
       <c r="C19" t="n">
-        <v>64.50082408610936</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>66.07946360921487</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.3151662150742</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.41928851409257</v>
+        <v>17.41928851409252</v>
       </c>
       <c r="R19" t="n">
-        <v>136.8938057381793</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.47909318177865</v>
+        <v>34.47909318177864</v>
       </c>
       <c r="T19" t="n">
         <v>57.01058753418618</v>
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>31.6302468984948</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H21" t="n">
-        <v>96.08621347328979</v>
+        <v>0.5705753278287476</v>
       </c>
       <c r="I21" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.85006423600242</v>
+        <v>40.85006423600238</v>
       </c>
       <c r="S21" t="n">
         <v>145.7858681427258</v>
@@ -2239,7 +2239,7 @@
         <v>8.941143485347283</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.41928851409257</v>
+        <v>17.41928851409252</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>63.09505149387849</v>
+        <v>67.95391316313116</v>
       </c>
       <c r="T22" t="n">
         <v>57.01058753418618</v>
@@ -2296,7 +2296,7 @@
         <v>111.5261604384181</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>85.34927988497287</v>
       </c>
       <c r="W22" t="n">
         <v>110.5161659555861</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>31.6302468984948</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H24" t="n">
         <v>96.08621347328979</v>
       </c>
       <c r="I24" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S24" t="n">
         <v>145.7858681427258</v>
       </c>
       <c r="T24" t="n">
-        <v>185.6078659166395</v>
+        <v>90.09222777117924</v>
       </c>
       <c r="U24" t="n">
         <v>216.2904148768182</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.49024631119666</v>
+        <v>8.941143485347283</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.95172126025997</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.41928851409257</v>
+        <v>17.41928851409254</v>
       </c>
       <c r="R25" t="n">
-        <v>136.8938057381793</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.47909318177865</v>
+        <v>67.95391316313116</v>
       </c>
       <c r="T25" t="n">
         <v>57.01058753418618</v>
@@ -2555,25 +2555,25 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C26" t="n">
-        <v>275.882942175001</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D26" t="n">
         <v>266.864246219529</v>
       </c>
       <c r="E26" t="n">
-        <v>288.6063837894345</v>
+        <v>288.6063837894346</v>
       </c>
       <c r="F26" t="n">
-        <v>307.7781998774117</v>
+        <v>307.7781998774118</v>
       </c>
       <c r="G26" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H26" t="n">
-        <v>221.6087210113936</v>
+        <v>221.6087210113937</v>
       </c>
       <c r="I26" t="n">
-        <v>47.57772831531526</v>
+        <v>47.57772831531531</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.54719260666907</v>
+        <v>70.54719260666914</v>
       </c>
       <c r="T26" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0608464255998</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V26" t="n">
-        <v>231.3780024574984</v>
+        <v>231.3780024574985</v>
       </c>
       <c r="W26" t="n">
-        <v>256.6781019354553</v>
+        <v>256.6781019354554</v>
       </c>
       <c r="X26" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.3749579644007</v>
+        <v>287.3749579644008</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I27" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S27" t="n">
         <v>145.7858681427258</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.48833609201634</v>
+        <v>79.48833609201643</v>
       </c>
       <c r="C28" t="n">
-        <v>65.68833093741682</v>
+        <v>65.68833093741691</v>
       </c>
       <c r="D28" t="n">
-        <v>49.30969533499521</v>
+        <v>49.3096953349953</v>
       </c>
       <c r="E28" t="n">
-        <v>48.25744519077466</v>
+        <v>48.25744519077475</v>
       </c>
       <c r="F28" t="n">
-        <v>48.72436951896097</v>
+        <v>48.72436951896105</v>
       </c>
       <c r="G28" t="n">
-        <v>64.75147754526341</v>
+        <v>64.7514775452635</v>
       </c>
       <c r="H28" t="n">
-        <v>53.34609793795931</v>
+        <v>53.34609793795939</v>
       </c>
       <c r="I28" t="n">
-        <v>33.0836873095545</v>
+        <v>33.08368730955458</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66232683265957</v>
+        <v>34.66232683265963</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884478</v>
       </c>
       <c r="T28" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408553</v>
       </c>
       <c r="U28" t="n">
-        <v>182.0733530450871</v>
+        <v>182.0733530450872</v>
       </c>
       <c r="V28" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W28" t="n">
-        <v>181.0633585622552</v>
+        <v>181.0633585622553</v>
       </c>
       <c r="X28" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580584</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.583328314126</v>
+        <v>117.5833283141261</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54719260666906</v>
+        <v>70.54719260666907</v>
       </c>
       <c r="T29" t="n">
         <v>117.4676296620864</v>
@@ -2889,7 +2889,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I30" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S30" t="n">
         <v>145.7858681427258</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.48833609201633</v>
+        <v>79.48833609201635</v>
       </c>
       <c r="C31" t="n">
-        <v>65.68833093741681</v>
+        <v>65.68833093741684</v>
       </c>
       <c r="D31" t="n">
-        <v>49.3096953349952</v>
+        <v>49.30969533499523</v>
       </c>
       <c r="E31" t="n">
-        <v>48.25744519077465</v>
+        <v>48.25744519077467</v>
       </c>
       <c r="F31" t="n">
-        <v>48.72436951896096</v>
+        <v>48.72436951896098</v>
       </c>
       <c r="G31" t="n">
-        <v>64.7514775452634</v>
+        <v>64.75147754526343</v>
       </c>
       <c r="H31" t="n">
-        <v>53.34609793795929</v>
+        <v>53.34609793795932</v>
       </c>
       <c r="I31" t="n">
-        <v>33.08368730955448</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>105.0262857884477</v>
       </c>
       <c r="T31" t="n">
-        <v>127.5577801408552</v>
+        <v>127.557780140855</v>
       </c>
       <c r="U31" t="n">
-        <v>182.0733530450874</v>
+        <v>182.0733530450876</v>
       </c>
       <c r="V31" t="n">
         <v>155.8964724916419</v>
@@ -3029,25 +3029,25 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C32" t="n">
-        <v>275.882942175001</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D32" t="n">
         <v>266.864246219529</v>
       </c>
       <c r="E32" t="n">
-        <v>288.6063837894345</v>
+        <v>288.6063837894346</v>
       </c>
       <c r="F32" t="n">
         <v>307.7781998774117</v>
       </c>
       <c r="G32" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H32" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I32" t="n">
-        <v>47.57772831531524</v>
+        <v>47.5777283153153</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.54719260666904</v>
+        <v>70.54719260666913</v>
       </c>
       <c r="T32" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0608464255998</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V32" t="n">
         <v>231.3780024574984</v>
@@ -3092,7 +3092,7 @@
         <v>256.6781019354553</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y32" t="n">
         <v>287.3749579644007</v>
@@ -3126,7 +3126,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I33" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S33" t="n">
         <v>145.7858681427258</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.48833609201633</v>
+        <v>79.48833609201641</v>
       </c>
       <c r="C34" t="n">
-        <v>65.68833093741681</v>
+        <v>65.68833093741689</v>
       </c>
       <c r="D34" t="n">
-        <v>49.3096953349952</v>
+        <v>49.30969533499528</v>
       </c>
       <c r="E34" t="n">
-        <v>48.25744519077465</v>
+        <v>48.25744519077473</v>
       </c>
       <c r="F34" t="n">
-        <v>48.72436951896096</v>
+        <v>48.72436951896104</v>
       </c>
       <c r="G34" t="n">
-        <v>64.7514775452634</v>
+        <v>64.75147754526348</v>
       </c>
       <c r="H34" t="n">
-        <v>53.34609793795929</v>
+        <v>53.34609793795938</v>
       </c>
       <c r="I34" t="n">
-        <v>33.08368730955448</v>
+        <v>33.08368730955456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66232683265955</v>
+        <v>34.66232683265962</v>
       </c>
       <c r="S34" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884478</v>
       </c>
       <c r="T34" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408553</v>
       </c>
       <c r="U34" t="n">
-        <v>182.0733530450871</v>
+        <v>182.0733530450872</v>
       </c>
       <c r="V34" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W34" t="n">
         <v>181.0633585622552</v>
       </c>
       <c r="X34" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580584</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.583328314126</v>
+        <v>117.5833283141261</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>238.6094131399916</v>
       </c>
       <c r="C35" t="n">
-        <v>226.6207300976733</v>
+        <v>226.6207300976734</v>
       </c>
       <c r="D35" t="n">
         <v>217.6020341422013</v>
       </c>
       <c r="E35" t="n">
-        <v>239.3441717121068</v>
+        <v>239.3441717121069</v>
       </c>
       <c r="F35" t="n">
-        <v>258.515987800084</v>
+        <v>258.5159878000841</v>
       </c>
       <c r="G35" t="n">
-        <v>259.8972857971769</v>
+        <v>259.897285797177</v>
       </c>
       <c r="H35" t="n">
-        <v>172.3465089340659</v>
+        <v>172.346508934066</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.28498052934137</v>
+        <v>21.28498052934142</v>
       </c>
       <c r="T35" t="n">
-        <v>68.20541758475872</v>
+        <v>68.20541758475878</v>
       </c>
       <c r="U35" t="n">
-        <v>100.7986343482721</v>
+        <v>100.7986343482722</v>
       </c>
       <c r="V35" t="n">
-        <v>182.1157903801707</v>
+        <v>182.1157903801708</v>
       </c>
       <c r="W35" t="n">
-        <v>207.4158898581276</v>
+        <v>207.4158898581277</v>
       </c>
       <c r="X35" t="n">
-        <v>226.7161480908742</v>
+        <v>226.7161480908743</v>
       </c>
       <c r="Y35" t="n">
         <v>238.112745887073</v>
@@ -3363,7 +3363,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I36" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S36" t="n">
         <v>145.7858681427258</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.22612401468865</v>
+        <v>30.22612401468871</v>
       </c>
       <c r="C37" t="n">
-        <v>16.42611886008913</v>
+        <v>16.42611886008919</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04748325766752259</v>
+        <v>0.04748325766757944</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.48926546793573</v>
+        <v>15.48926546793578</v>
       </c>
       <c r="H37" t="n">
-        <v>4.08388586063162</v>
+        <v>4.083885860631673</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>12.48732065732587</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.25139436844637</v>
+        <v>55.76407371112007</v>
       </c>
       <c r="T37" t="n">
-        <v>78.29556806352755</v>
+        <v>78.29556806352761</v>
       </c>
       <c r="U37" t="n">
         <v>132.8111409677595</v>
       </c>
       <c r="V37" t="n">
-        <v>106.6342604143142</v>
+        <v>106.6342604143143</v>
       </c>
       <c r="W37" t="n">
-        <v>131.8011464849275</v>
+        <v>131.8011464849276</v>
       </c>
       <c r="X37" t="n">
-        <v>77.44624848073062</v>
+        <v>77.44624848073067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.3211162367983</v>
+        <v>68.32111623679836</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>217.6020341422013</v>
       </c>
       <c r="E38" t="n">
-        <v>239.3441717121068</v>
+        <v>239.3441717121069</v>
       </c>
       <c r="F38" t="n">
         <v>258.515987800084</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.28498052934137</v>
+        <v>21.2849805293414</v>
       </c>
       <c r="T38" t="n">
-        <v>68.20541758475872</v>
+        <v>68.20541758475875</v>
       </c>
       <c r="U38" t="n">
-        <v>100.7986343482721</v>
+        <v>100.7986343482722</v>
       </c>
       <c r="V38" t="n">
         <v>182.1157903801707</v>
@@ -3600,7 +3600,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I39" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S39" t="n">
         <v>145.7858681427258</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.22612401468865</v>
+        <v>30.22612401468868</v>
       </c>
       <c r="C40" t="n">
-        <v>16.42611886008913</v>
+        <v>16.42611886008916</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04748325766752259</v>
+        <v>0.04748325766755102</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.48926546793573</v>
+        <v>15.48926546793576</v>
       </c>
       <c r="H40" t="n">
-        <v>4.08388586063162</v>
+        <v>4.083885860631645</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.48732065732643</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.76407371112002</v>
+        <v>55.76407371112004</v>
       </c>
       <c r="T40" t="n">
-        <v>78.29556806352755</v>
+        <v>90.78288872085378</v>
       </c>
       <c r="U40" t="n">
         <v>132.8111409677595</v>
       </c>
       <c r="V40" t="n">
-        <v>106.6342604143142</v>
+        <v>106.6342604143143</v>
       </c>
       <c r="W40" t="n">
         <v>131.8011464849275</v>
       </c>
       <c r="X40" t="n">
-        <v>77.44624848073062</v>
+        <v>77.44624848073065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.3211162367983</v>
+        <v>68.32111623679833</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.6094131399916</v>
+        <v>238.6094131399915</v>
       </c>
       <c r="C41" t="n">
         <v>226.6207300976733</v>
@@ -3746,7 +3746,7 @@
         <v>217.6020341422013</v>
       </c>
       <c r="E41" t="n">
-        <v>239.3441717121069</v>
+        <v>239.3441717121068</v>
       </c>
       <c r="F41" t="n">
         <v>258.515987800084</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.2849805293414</v>
+        <v>21.28498052934134</v>
       </c>
       <c r="T41" t="n">
-        <v>68.20541758475875</v>
+        <v>68.20541758475869</v>
       </c>
       <c r="U41" t="n">
-        <v>100.7986343482722</v>
+        <v>100.7986343482721</v>
       </c>
       <c r="V41" t="n">
         <v>182.1157903801707</v>
@@ -3806,7 +3806,7 @@
         <v>226.7161480908742</v>
       </c>
       <c r="Y41" t="n">
-        <v>238.112745887073</v>
+        <v>238.1127458870729</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I42" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S42" t="n">
         <v>145.7858681427258</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.22612401468868</v>
+        <v>30.22612401468862</v>
       </c>
       <c r="C43" t="n">
-        <v>16.42611886008916</v>
+        <v>16.4261188600891</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04748325766755102</v>
+        <v>0.04748325766749417</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.48926546793576</v>
+        <v>15.4892654679357</v>
       </c>
       <c r="H43" t="n">
-        <v>4.083885860631648</v>
+        <v>4.083885860631588</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>12.48732065732699</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.76407371112005</v>
+        <v>55.76407371111998</v>
       </c>
       <c r="T43" t="n">
-        <v>78.29556806352758</v>
+        <v>78.29556806352753</v>
       </c>
       <c r="U43" t="n">
-        <v>132.8111409677595</v>
+        <v>132.8111409677594</v>
       </c>
       <c r="V43" t="n">
-        <v>106.6342604143143</v>
+        <v>106.6342604143142</v>
       </c>
       <c r="W43" t="n">
         <v>131.8011464849275</v>
       </c>
       <c r="X43" t="n">
-        <v>77.44624848073065</v>
+        <v>77.44624848073059</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.80843689412443</v>
+        <v>68.32111623679828</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>238.6094131399916</v>
       </c>
       <c r="C44" t="n">
-        <v>226.6207300976733</v>
+        <v>226.6207300976734</v>
       </c>
       <c r="D44" t="n">
         <v>217.6020341422013</v>
@@ -3986,13 +3986,13 @@
         <v>239.3441717121069</v>
       </c>
       <c r="F44" t="n">
-        <v>258.515987800084</v>
+        <v>258.5159878000841</v>
       </c>
       <c r="G44" t="n">
-        <v>259.8972857971769</v>
+        <v>259.897285797177</v>
       </c>
       <c r="H44" t="n">
-        <v>172.3465089340659</v>
+        <v>172.346508934066</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.28498052934141</v>
+        <v>21.28498052934142</v>
       </c>
       <c r="T44" t="n">
-        <v>68.20541758475876</v>
+        <v>68.20541758475878</v>
       </c>
       <c r="U44" t="n">
         <v>100.7986343482722</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1157903801707</v>
+        <v>182.1157903801708</v>
       </c>
       <c r="W44" t="n">
-        <v>207.4158898581276</v>
+        <v>207.4158898581277</v>
       </c>
       <c r="X44" t="n">
-        <v>226.7161480908742</v>
+        <v>226.7161480908743</v>
       </c>
       <c r="Y44" t="n">
         <v>238.112745887073</v>
@@ -4074,7 +4074,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I45" t="n">
-        <v>57.53030467618054</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.85006423600242</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S45" t="n">
         <v>145.7858681427258</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.22612401468868</v>
+        <v>30.22612401468871</v>
       </c>
       <c r="C46" t="n">
-        <v>16.42611886008916</v>
+        <v>16.42611886008919</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04748325766755102</v>
+        <v>0.04748325766757944</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.48926546793576</v>
+        <v>15.48926546793578</v>
       </c>
       <c r="H46" t="n">
-        <v>4.083885860631648</v>
+        <v>4.083885860631673</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.48732065732592</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.76407371112005</v>
+        <v>55.76407371112007</v>
       </c>
       <c r="T46" t="n">
-        <v>90.78288872085368</v>
+        <v>78.29556806352761</v>
       </c>
       <c r="U46" t="n">
         <v>132.8111409677595</v>
@@ -4195,13 +4195,13 @@
         <v>106.6342604143143</v>
       </c>
       <c r="W46" t="n">
-        <v>131.8011464849275</v>
+        <v>131.8011464849276</v>
       </c>
       <c r="X46" t="n">
-        <v>77.44624848073065</v>
+        <v>77.44624848073067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.32111623679833</v>
+        <v>68.32111623679836</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1159.644330273384</v>
+        <v>906.2249465303637</v>
       </c>
       <c r="C11" t="n">
-        <v>880.9746917127765</v>
+        <v>906.2249465303637</v>
       </c>
       <c r="D11" t="n">
-        <v>611.4148470465856</v>
+        <v>636.665101864173</v>
       </c>
       <c r="E11" t="n">
-        <v>319.8932472592778</v>
+        <v>345.1435020768655</v>
       </c>
       <c r="F11" t="n">
-        <v>40.3893501074863</v>
+        <v>345.1435020768655</v>
       </c>
       <c r="G11" t="n">
-        <v>40.3893501074863</v>
+        <v>312.2948544778992</v>
       </c>
       <c r="H11" t="n">
-        <v>40.3893501074863</v>
+        <v>88.44766153709757</v>
       </c>
       <c r="I11" t="n">
-        <v>40.3893501074863</v>
+        <v>40.38935010748628</v>
       </c>
       <c r="J11" t="n">
         <v>158.7671721551106</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4180589968545</v>
+        <v>468.4180589968546</v>
       </c>
       <c r="L11" t="n">
-        <v>902.5373722276018</v>
+        <v>902.5373722276022</v>
       </c>
       <c r="M11" t="n">
-        <v>902.5373722276018</v>
+        <v>1391.728412394328</v>
       </c>
       <c r="N11" t="n">
-        <v>1162.212363208222</v>
+        <v>1391.728412394328</v>
       </c>
       <c r="O11" t="n">
-        <v>1559.287659039774</v>
+        <v>1788.80370822588</v>
       </c>
       <c r="P11" t="n">
-        <v>1866.024777509302</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="Q11" t="n">
-        <v>2019.467505374315</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="R11" t="n">
-        <v>2019.467505374315</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="S11" t="n">
-        <v>2019.467505374315</v>
+        <v>1948.207714862527</v>
       </c>
       <c r="T11" t="n">
-        <v>2019.467505374315</v>
+        <v>1829.553543486682</v>
       </c>
       <c r="U11" t="n">
-        <v>2019.467505374315</v>
+        <v>1677.976930935571</v>
       </c>
       <c r="V11" t="n">
-        <v>2019.467505374315</v>
+        <v>1444.261776938098</v>
       </c>
       <c r="W11" t="n">
-        <v>2019.467505374315</v>
+        <v>1184.990966902285</v>
       </c>
       <c r="X11" t="n">
-        <v>1740.701485002394</v>
+        <v>906.2249465303637</v>
       </c>
       <c r="Y11" t="n">
-        <v>1450.423749684817</v>
+        <v>906.2249465303637</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>647.8195346760751</v>
+        <v>906.2518549336409</v>
       </c>
       <c r="C12" t="n">
-        <v>486.1158619170299</v>
+        <v>744.5481821745956</v>
       </c>
       <c r="D12" t="n">
-        <v>347.2772249072419</v>
+        <v>605.7095451648077</v>
       </c>
       <c r="E12" t="n">
-        <v>200.2492149641132</v>
+        <v>458.6815352216788</v>
       </c>
       <c r="F12" t="n">
-        <v>65.55541691398751</v>
+        <v>323.9877371715531</v>
       </c>
       <c r="G12" t="n">
-        <v>40.3893501074863</v>
+        <v>195.5575502584664</v>
       </c>
       <c r="H12" t="n">
-        <v>40.3893501074863</v>
+        <v>98.50076897231509</v>
       </c>
       <c r="I12" t="n">
-        <v>40.3893501074863</v>
+        <v>40.38935010748628</v>
       </c>
       <c r="J12" t="n">
-        <v>128.2666767534135</v>
+        <v>40.38935010748628</v>
       </c>
       <c r="K12" t="n">
-        <v>404.9696438818085</v>
+        <v>317.0923172358813</v>
       </c>
       <c r="L12" t="n">
-        <v>834.2744068127154</v>
+        <v>746.3970801667883</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.683432420115</v>
+        <v>1199.776683021991</v>
       </c>
       <c r="N12" t="n">
-        <v>1004.683432420115</v>
+        <v>1199.776683021991</v>
       </c>
       <c r="O12" t="n">
-        <v>1466.447222003774</v>
+        <v>1661.54047260565</v>
       </c>
       <c r="P12" t="n">
-        <v>1824.374254772438</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="Q12" t="n">
-        <v>2019.467505374315</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="R12" t="n">
-        <v>2014.076855091899</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="S12" t="n">
-        <v>1970.082522529064</v>
+        <v>1918.722482466873</v>
       </c>
       <c r="T12" t="n">
-        <v>1885.863949790559</v>
+        <v>1731.239789621783</v>
       </c>
       <c r="U12" t="n">
-        <v>1667.388783248319</v>
+        <v>1512.764623079542</v>
       </c>
       <c r="V12" t="n">
-        <v>1438.993160696652</v>
+        <v>1387.633120634461</v>
       </c>
       <c r="W12" t="n">
-        <v>1197.677291929963</v>
+        <v>1249.581371974357</v>
       </c>
       <c r="X12" t="n">
-        <v>999.7603038077572</v>
+        <v>1154.928503958737</v>
       </c>
       <c r="Y12" t="n">
-        <v>807.238977457336</v>
+        <v>1065.671297714902</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407.2187478599356</v>
+        <v>407.2187478599374</v>
       </c>
       <c r="C13" t="n">
         <v>340.8668984282014</v>
@@ -5182,67 +5182,67 @@
         <v>291.0591253625497</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3142312304546</v>
+        <v>242.3142312304541</v>
       </c>
       <c r="F13" t="n">
-        <v>193.0976963628169</v>
+        <v>193.0976963628167</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6921634888134</v>
+        <v>127.6921634888133</v>
       </c>
       <c r="H13" t="n">
-        <v>73.80721607673328</v>
+        <v>73.8072160767332</v>
       </c>
       <c r="I13" t="n">
-        <v>40.3893501074863</v>
+        <v>40.38935010748628</v>
       </c>
       <c r="J13" t="n">
-        <v>100.0663101762934</v>
+        <v>100.0663101762935</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3580038615219</v>
+        <v>263.3580038615221</v>
       </c>
       <c r="L13" t="n">
-        <v>501.6167201631965</v>
+        <v>501.6167201631968</v>
       </c>
       <c r="M13" t="n">
-        <v>759.2428683472715</v>
+        <v>759.2428683472721</v>
       </c>
       <c r="N13" t="n">
         <v>1016.384227728628</v>
       </c>
       <c r="O13" t="n">
-        <v>1250.703459207873</v>
+        <v>1250.703459207874</v>
       </c>
       <c r="P13" t="n">
-        <v>1444.52710545843</v>
+        <v>1444.527105458431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1528.491173945943</v>
+        <v>1528.491173945944</v>
       </c>
       <c r="R13" t="n">
-        <v>1493.478722599822</v>
+        <v>1493.478722599823</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.391565237754</v>
+        <v>1387.391565237755</v>
       </c>
       <c r="T13" t="n">
-        <v>1258.545322671233</v>
+        <v>1258.545322671235</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.632844847913</v>
+        <v>1074.632844847915</v>
       </c>
       <c r="V13" t="n">
-        <v>917.1616605129213</v>
+        <v>917.1616605129228</v>
       </c>
       <c r="W13" t="n">
-        <v>734.269379136906</v>
+        <v>734.2693791369076</v>
       </c>
       <c r="X13" t="n">
-        <v>606.2810351388673</v>
+        <v>606.2810351388689</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5099964377299</v>
+        <v>487.5099964377316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.323592499097</v>
+        <v>1028.049770756303</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.323592499097</v>
+        <v>749.3801321956968</v>
       </c>
       <c r="D14" t="n">
-        <v>924.7637478329066</v>
+        <v>749.3801321956968</v>
       </c>
       <c r="E14" t="n">
-        <v>924.7637478329066</v>
+        <v>749.3801321956968</v>
       </c>
       <c r="F14" t="n">
-        <v>613.8766772496624</v>
+        <v>632.8292604360058</v>
       </c>
       <c r="G14" t="n">
         <v>320.5469393506468</v>
       </c>
       <c r="H14" t="n">
-        <v>96.69974640984515</v>
+        <v>96.69974640984512</v>
       </c>
       <c r="I14" t="n">
         <v>48.64143498023375</v>
       </c>
       <c r="J14" t="n">
-        <v>167.019257027858</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K14" t="n">
-        <v>476.6701438696019</v>
+        <v>175.670419212249</v>
       </c>
       <c r="L14" t="n">
-        <v>910.7894571003493</v>
+        <v>609.7897324429965</v>
       </c>
       <c r="M14" t="n">
         <v>1098.980772609722</v>
@@ -5303,25 +5303,25 @@
         <v>2432.071749011687</v>
       </c>
       <c r="S14" t="n">
-        <v>2432.071749011687</v>
+        <v>2360.8119584999</v>
       </c>
       <c r="T14" t="n">
-        <v>2313.417577635842</v>
+        <v>2242.157787124056</v>
       </c>
       <c r="U14" t="n">
-        <v>2313.417577635842</v>
+        <v>2090.581174572945</v>
       </c>
       <c r="V14" t="n">
-        <v>2313.417577635842</v>
+        <v>1856.866020575472</v>
       </c>
       <c r="W14" t="n">
-        <v>2054.146767600029</v>
+        <v>1597.595210539658</v>
       </c>
       <c r="X14" t="n">
-        <v>1775.380747228108</v>
+        <v>1318.829190167737</v>
       </c>
       <c r="Y14" t="n">
-        <v>1485.103011910531</v>
+        <v>1318.829190167737</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>48.64143498023375</v>
       </c>
       <c r="J15" t="n">
-        <v>136.5187616261609</v>
+        <v>136.518761626161</v>
       </c>
       <c r="K15" t="n">
-        <v>413.2217287545559</v>
+        <v>413.221728754556</v>
       </c>
       <c r="L15" t="n">
-        <v>842.5264916854628</v>
+        <v>842.526491685463</v>
       </c>
       <c r="M15" t="n">
         <v>1401.641415926745</v>
@@ -5382,7 +5382,7 @@
         <v>2390.80905786421</v>
       </c>
       <c r="S15" t="n">
-        <v>2340.031047765963</v>
+        <v>2243.55060519479</v>
       </c>
       <c r="T15" t="n">
         <v>2152.548354920872</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.470832732683</v>
+        <v>415.4708327326834</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1189833009488</v>
+        <v>349.1189833009493</v>
       </c>
       <c r="D16" t="n">
-        <v>299.311210235297</v>
+        <v>299.3112102352975</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5663161032014</v>
+        <v>250.5663161032019</v>
       </c>
       <c r="F16" t="n">
-        <v>201.349781235564</v>
+        <v>201.3497812355643</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9442483615605</v>
+        <v>135.9442483615609</v>
       </c>
       <c r="H16" t="n">
-        <v>82.05930094948042</v>
+        <v>82.05930094948073</v>
       </c>
       <c r="I16" t="n">
         <v>48.64143498023375</v>
@@ -5440,10 +5440,10 @@
         <v>271.6100887342694</v>
       </c>
       <c r="L16" t="n">
-        <v>509.868805035944</v>
+        <v>509.8688050359441</v>
       </c>
       <c r="M16" t="n">
-        <v>767.4949532200191</v>
+        <v>767.4949532200192</v>
       </c>
       <c r="N16" t="n">
         <v>1024.636312601375</v>
@@ -5455,13 +5455,13 @@
         <v>1452.779190331178</v>
       </c>
       <c r="Q16" t="n">
-        <v>1536.74325881869</v>
+        <v>1536.743258818691</v>
       </c>
       <c r="R16" t="n">
         <v>1501.73080747257</v>
       </c>
       <c r="S16" t="n">
-        <v>1395.643650110501</v>
+        <v>1395.643650110502</v>
       </c>
       <c r="T16" t="n">
         <v>1266.797407543981</v>
@@ -5470,16 +5470,16 @@
         <v>1082.884929720661</v>
       </c>
       <c r="V16" t="n">
-        <v>925.4137453856688</v>
+        <v>925.4137453856692</v>
       </c>
       <c r="W16" t="n">
-        <v>742.5214640096534</v>
+        <v>742.5214640096539</v>
       </c>
       <c r="X16" t="n">
-        <v>614.5331200116146</v>
+        <v>614.5331200116151</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7620813104773</v>
+        <v>495.7620813104778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.850359533022</v>
+        <v>1307.850359533021</v>
       </c>
       <c r="C17" t="n">
         <v>1100.440511484201</v>
       </c>
       <c r="D17" t="n">
-        <v>902.1404573297975</v>
+        <v>902.1404573297971</v>
       </c>
       <c r="E17" t="n">
         <v>681.8786480542768</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2513679828197</v>
+        <v>442.2513679828196</v>
       </c>
       <c r="G17" t="n">
         <v>201.2288374092484</v>
@@ -5513,25 +5513,25 @@
         <v>48.64143498023375</v>
       </c>
       <c r="J17" t="n">
-        <v>48.64143498023375</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K17" t="n">
-        <v>358.2923218219776</v>
+        <v>476.6701438696022</v>
       </c>
       <c r="L17" t="n">
-        <v>792.4116350527249</v>
+        <v>910.7894571003499</v>
       </c>
       <c r="M17" t="n">
-        <v>1281.602675219451</v>
+        <v>1098.980772609722</v>
       </c>
       <c r="N17" t="n">
-        <v>1757.438509455323</v>
+        <v>1574.816606845594</v>
       </c>
       <c r="O17" t="n">
-        <v>2125.33463054216</v>
+        <v>1971.891902677146</v>
       </c>
       <c r="P17" t="n">
-        <v>2432.071749011687</v>
+        <v>2278.629021146674</v>
       </c>
       <c r="Q17" t="n">
         <v>2432.071749011687</v>
@@ -5549,13 +5549,13 @@
         <v>2304.360546108304</v>
       </c>
       <c r="V17" t="n">
-        <v>2141.905182622619</v>
+        <v>2141.905182622618</v>
       </c>
       <c r="W17" t="n">
         <v>1953.894163098592</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.387933238458</v>
+        <v>1746.387933238457</v>
       </c>
       <c r="Y17" t="n">
         <v>1527.369988432668</v>
@@ -5592,16 +5592,16 @@
         <v>48.64143498023375</v>
       </c>
       <c r="J18" t="n">
-        <v>136.5187616261609</v>
+        <v>136.518761626161</v>
       </c>
       <c r="K18" t="n">
-        <v>413.2217287545559</v>
+        <v>413.2217287545561</v>
       </c>
       <c r="L18" t="n">
-        <v>842.5264916854628</v>
+        <v>842.5264916854632</v>
       </c>
       <c r="M18" t="n">
-        <v>1401.641415926745</v>
+        <v>1401.641415926746</v>
       </c>
       <c r="N18" t="n">
         <v>1417.287676057487</v>
@@ -5610,16 +5610,16 @@
         <v>1879.051465641146</v>
       </c>
       <c r="P18" t="n">
-        <v>2236.978498409811</v>
+        <v>2236.97849840981</v>
       </c>
       <c r="Q18" t="n">
         <v>2432.071749011687</v>
       </c>
       <c r="R18" t="n">
-        <v>2432.071749011687</v>
+        <v>2390.80905786421</v>
       </c>
       <c r="S18" t="n">
-        <v>2340.031047765963</v>
+        <v>2243.55060519479</v>
       </c>
       <c r="T18" t="n">
         <v>2152.548354920872</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.7937825419604</v>
+        <v>252.0703539946671</v>
       </c>
       <c r="C19" t="n">
-        <v>48.64143498023375</v>
+        <v>252.0703539946671</v>
       </c>
       <c r="D19" t="n">
-        <v>48.64143498023375</v>
+        <v>252.0703539946671</v>
       </c>
       <c r="E19" t="n">
-        <v>48.64143498023375</v>
+        <v>252.0703539946671</v>
       </c>
       <c r="F19" t="n">
-        <v>48.64143498023375</v>
+        <v>252.0703539946671</v>
       </c>
       <c r="G19" t="n">
-        <v>48.64143498023375</v>
+        <v>185.3234210560663</v>
       </c>
       <c r="H19" t="n">
-        <v>48.64143498023375</v>
+        <v>185.3234210560663</v>
       </c>
       <c r="I19" t="n">
         <v>48.64143498023375</v>
@@ -5674,49 +5674,49 @@
         <v>48.64143498023375</v>
       </c>
       <c r="K19" t="n">
-        <v>110.7239645489978</v>
+        <v>110.7239645489979</v>
       </c>
       <c r="L19" t="n">
-        <v>247.773516734208</v>
+        <v>247.7735167342082</v>
       </c>
       <c r="M19" t="n">
-        <v>404.1905008018185</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N19" t="n">
-        <v>560.1226960667102</v>
+        <v>560.1226960667105</v>
       </c>
       <c r="O19" t="n">
-        <v>693.2327634294913</v>
+        <v>693.2327634294918</v>
       </c>
       <c r="P19" t="n">
-        <v>785.8472455635839</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="Q19" t="n">
-        <v>768.2520046402581</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="R19" t="n">
-        <v>629.9754331875517</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S19" t="n">
-        <v>595.1480663372703</v>
+        <v>733.4246377899771</v>
       </c>
       <c r="T19" t="n">
-        <v>537.5616142825368</v>
+        <v>675.8381857352435</v>
       </c>
       <c r="U19" t="n">
-        <v>424.9089269710033</v>
+        <v>563.1854984237101</v>
       </c>
       <c r="V19" t="n">
-        <v>338.6975331477984</v>
+        <v>476.9741046005051</v>
       </c>
       <c r="W19" t="n">
-        <v>227.0650422835699</v>
+        <v>365.3416137362767</v>
       </c>
       <c r="X19" t="n">
-        <v>170.3364887973182</v>
+        <v>308.6130602500249</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.8252406079677</v>
+        <v>261.1018120606745</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1100.440511484202</v>
       </c>
       <c r="D20" t="n">
-        <v>902.1404573297975</v>
+        <v>902.1404573297976</v>
       </c>
       <c r="E20" t="n">
         <v>681.8786480542769</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2513679828202</v>
+        <v>442.2513679828197</v>
       </c>
       <c r="G20" t="n">
         <v>201.2288374092484</v>
@@ -5750,25 +5750,25 @@
         <v>48.64143498023375</v>
       </c>
       <c r="J20" t="n">
-        <v>48.64143498023375</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K20" t="n">
-        <v>358.2923218219776</v>
+        <v>476.6701438696022</v>
       </c>
       <c r="L20" t="n">
-        <v>792.4116350527249</v>
+        <v>910.7894571003499</v>
       </c>
       <c r="M20" t="n">
-        <v>1281.602675219451</v>
+        <v>1098.980772609722</v>
       </c>
       <c r="N20" t="n">
-        <v>1757.438509455323</v>
+        <v>1574.816606845594</v>
       </c>
       <c r="O20" t="n">
-        <v>2154.513805286874</v>
+        <v>1971.891902677146</v>
       </c>
       <c r="P20" t="n">
-        <v>2432.071749011687</v>
+        <v>2278.629021146674</v>
       </c>
       <c r="Q20" t="n">
         <v>2432.071749011687</v>
@@ -5820,7 +5820,7 @@
         <v>235.7593794731278</v>
       </c>
       <c r="G21" t="n">
-        <v>203.8096351312139</v>
+        <v>107.3291925600411</v>
       </c>
       <c r="H21" t="n">
         <v>106.7528538450626</v>
@@ -5829,16 +5829,16 @@
         <v>48.64143498023375</v>
       </c>
       <c r="J21" t="n">
-        <v>136.5187616261609</v>
+        <v>136.518761626161</v>
       </c>
       <c r="K21" t="n">
-        <v>413.2217287545559</v>
+        <v>413.2217287545561</v>
       </c>
       <c r="L21" t="n">
-        <v>829.979740462652</v>
+        <v>842.5264916854632</v>
       </c>
       <c r="M21" t="n">
-        <v>829.979740462652</v>
+        <v>1401.641415926746</v>
       </c>
       <c r="N21" t="n">
         <v>1417.287676057487</v>
@@ -5847,7 +5847,7 @@
         <v>1879.051465641146</v>
       </c>
       <c r="P21" t="n">
-        <v>2236.978498409811</v>
+        <v>2236.97849840981</v>
       </c>
       <c r="Q21" t="n">
         <v>2432.071749011687</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.64143498023375</v>
+        <v>218.2574045185535</v>
       </c>
       <c r="C22" t="n">
         <v>48.64143498023375</v>
@@ -5911,49 +5911,49 @@
         <v>48.64143498023375</v>
       </c>
       <c r="K22" t="n">
-        <v>110.7239645489978</v>
+        <v>110.7239645489979</v>
       </c>
       <c r="L22" t="n">
-        <v>247.773516734208</v>
+        <v>247.7735167342082</v>
       </c>
       <c r="M22" t="n">
-        <v>404.1905008018185</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N22" t="n">
-        <v>560.1226960667102</v>
+        <v>560.1226960667105</v>
       </c>
       <c r="O22" t="n">
-        <v>693.2327634294913</v>
+        <v>693.2327634294918</v>
       </c>
       <c r="P22" t="n">
-        <v>785.8472455635839</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="Q22" t="n">
-        <v>768.2520046402581</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="R22" t="n">
-        <v>768.2520046402581</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S22" t="n">
-        <v>704.5196293939161</v>
+        <v>699.6116883138634</v>
       </c>
       <c r="T22" t="n">
-        <v>646.9331773391826</v>
+        <v>642.0252362591299</v>
       </c>
       <c r="U22" t="n">
-        <v>534.2804900276492</v>
+        <v>529.3725489475964</v>
       </c>
       <c r="V22" t="n">
-        <v>273.5451855860717</v>
+        <v>443.1611551243915</v>
       </c>
       <c r="W22" t="n">
-        <v>161.9126947218433</v>
+        <v>331.5286642601631</v>
       </c>
       <c r="X22" t="n">
-        <v>105.1841412355915</v>
+        <v>274.8001107739113</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.6728930462411</v>
+        <v>227.2888625845608</v>
       </c>
     </row>
     <row r="23">
@@ -5963,67 +5963,67 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1307.850359533022</v>
+        <v>1307.850359533023</v>
       </c>
       <c r="C23" t="n">
-        <v>1100.440511484202</v>
+        <v>1100.440511484203</v>
       </c>
       <c r="D23" t="n">
-        <v>902.1404573297982</v>
+        <v>902.140457329799</v>
       </c>
       <c r="E23" t="n">
-        <v>681.8786480542775</v>
+        <v>681.8786480542783</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2513679828203</v>
+        <v>442.2513679828211</v>
       </c>
       <c r="G23" t="n">
         <v>201.2288374092484</v>
       </c>
       <c r="H23" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="I23" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="J23" t="n">
-        <v>167.019257027858</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K23" t="n">
-        <v>476.6701438696019</v>
+        <v>476.6701438696021</v>
       </c>
       <c r="L23" t="n">
-        <v>910.7894571003493</v>
+        <v>609.7897324429969</v>
       </c>
       <c r="M23" t="n">
-        <v>1399.980497267075</v>
+        <v>1098.980772609723</v>
       </c>
       <c r="N23" t="n">
-        <v>1875.816331502947</v>
+        <v>1574.816606845595</v>
       </c>
       <c r="O23" t="n">
-        <v>2272.891627334498</v>
+        <v>1971.891902677147</v>
       </c>
       <c r="P23" t="n">
-        <v>2432.071749011687</v>
+        <v>2278.629021146675</v>
       </c>
       <c r="Q23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="R23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="S23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="T23" t="n">
-        <v>2384.677368147629</v>
+        <v>2384.67736814763</v>
       </c>
       <c r="U23" t="n">
-        <v>2304.360546108305</v>
+        <v>2304.360546108306</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.905182622619</v>
+        <v>2141.90518262262</v>
       </c>
       <c r="W23" t="n">
         <v>1953.894163098593</v>
@@ -6032,7 +6032,7 @@
         <v>1746.387933238459</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.369988432669</v>
+        <v>1527.36998843267</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>818.0234972352155</v>
+        <v>914.5039398063883</v>
       </c>
       <c r="C24" t="n">
-        <v>656.3198244761702</v>
+        <v>752.800267047343</v>
       </c>
       <c r="D24" t="n">
-        <v>517.4811874663823</v>
+        <v>613.9616300375551</v>
       </c>
       <c r="E24" t="n">
-        <v>370.4531775232535</v>
+        <v>466.9336200944263</v>
       </c>
       <c r="F24" t="n">
-        <v>235.7593794731278</v>
+        <v>332.2398220443006</v>
       </c>
       <c r="G24" t="n">
         <v>203.8096351312139</v>
@@ -6063,55 +6063,55 @@
         <v>106.7528538450626</v>
       </c>
       <c r="I24" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="J24" t="n">
-        <v>136.5187616261609</v>
+        <v>123.9720104033507</v>
       </c>
       <c r="K24" t="n">
-        <v>413.2217287545559</v>
+        <v>400.6749775317457</v>
       </c>
       <c r="L24" t="n">
-        <v>842.5264916854628</v>
+        <v>829.9797404626528</v>
       </c>
       <c r="M24" t="n">
-        <v>1401.641415926745</v>
+        <v>829.9797404626528</v>
       </c>
       <c r="N24" t="n">
-        <v>1417.287676057487</v>
+        <v>1417.287676057488</v>
       </c>
       <c r="O24" t="n">
-        <v>1879.051465641146</v>
+        <v>1879.051465641147</v>
       </c>
       <c r="P24" t="n">
         <v>2236.978498409811</v>
       </c>
       <c r="Q24" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011688</v>
       </c>
       <c r="R24" t="n">
-        <v>2390.80905786421</v>
+        <v>2390.809057864211</v>
       </c>
       <c r="S24" t="n">
-        <v>2243.55060519479</v>
+        <v>2243.550605194791</v>
       </c>
       <c r="T24" t="n">
-        <v>2056.0679123497</v>
+        <v>2152.548354920872</v>
       </c>
       <c r="U24" t="n">
-        <v>1837.592745807459</v>
+        <v>1934.073188378632</v>
       </c>
       <c r="V24" t="n">
-        <v>1609.197123255793</v>
+        <v>1705.677565826966</v>
       </c>
       <c r="W24" t="n">
-        <v>1367.881254489103</v>
+        <v>1464.361697060276</v>
       </c>
       <c r="X24" t="n">
-        <v>1169.964266366898</v>
+        <v>1266.44470893807</v>
       </c>
       <c r="Y24" t="n">
-        <v>977.4429400164764</v>
+        <v>1073.923382587649</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.01691100069837</v>
+        <v>218.2574045185535</v>
       </c>
       <c r="C25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="D25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="E25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="F25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="G25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="H25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="I25" t="n">
-        <v>91.01691100069837</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023376</v>
       </c>
       <c r="K25" t="n">
-        <v>110.7239645489978</v>
+        <v>110.7239645489979</v>
       </c>
       <c r="L25" t="n">
-        <v>247.773516734208</v>
+        <v>247.7735167342082</v>
       </c>
       <c r="M25" t="n">
-        <v>404.1905008018185</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N25" t="n">
-        <v>560.1226960667102</v>
+        <v>560.1226960667105</v>
       </c>
       <c r="O25" t="n">
-        <v>693.2327634294913</v>
+        <v>693.2327634294918</v>
       </c>
       <c r="P25" t="n">
-        <v>785.8472455635839</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="Q25" t="n">
-        <v>768.2520046402581</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="R25" t="n">
-        <v>629.9754331875517</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S25" t="n">
-        <v>595.1480663372703</v>
+        <v>699.6116883138634</v>
       </c>
       <c r="T25" t="n">
-        <v>537.5616142825368</v>
+        <v>642.0252362591299</v>
       </c>
       <c r="U25" t="n">
-        <v>424.9089269710033</v>
+        <v>529.3725489475964</v>
       </c>
       <c r="V25" t="n">
-        <v>338.6975331477984</v>
+        <v>443.1611551243915</v>
       </c>
       <c r="W25" t="n">
-        <v>227.0650422835699</v>
+        <v>331.5286642601631</v>
       </c>
       <c r="X25" t="n">
-        <v>170.3364887973182</v>
+        <v>274.8001107739113</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.8252406079677</v>
+        <v>227.2888625845608</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1804.808136045491</v>
+        <v>1804.808136045489</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.138497484884</v>
+        <v>1526.138497484882</v>
       </c>
       <c r="D26" t="n">
-        <v>1256.578652818693</v>
+        <v>1256.578652818691</v>
       </c>
       <c r="E26" t="n">
-        <v>965.0570530313848</v>
+        <v>965.057053031383</v>
       </c>
       <c r="F26" t="n">
-        <v>654.1699824481407</v>
+        <v>654.1699824481395</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8876613627825</v>
+        <v>341.8876613627813</v>
       </c>
       <c r="H26" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I26" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236901</v>
       </c>
       <c r="J26" t="n">
         <v>289.5691431564578</v>
@@ -6230,19 +6230,19 @@
         <v>700.4291941146662</v>
       </c>
       <c r="L26" t="n">
-        <v>1235.757671461878</v>
+        <v>1134.548507345414</v>
       </c>
       <c r="M26" t="n">
         <v>1724.948711628604</v>
       </c>
       <c r="N26" t="n">
-        <v>2291.524683130151</v>
+        <v>2301.99370998094</v>
       </c>
       <c r="O26" t="n">
         <v>2789.809143078167</v>
       </c>
       <c r="P26" t="n">
-        <v>3197.75542566416</v>
+        <v>3197.755425664159</v>
       </c>
       <c r="Q26" t="n">
         <v>3452.407317645637</v>
@@ -6251,25 +6251,25 @@
         <v>3499.107849618451</v>
       </c>
       <c r="S26" t="n">
-        <v>3427.848059106665</v>
+        <v>3427.848059106664</v>
       </c>
       <c r="T26" t="n">
-        <v>3309.19388773082</v>
+        <v>3309.193887730819</v>
       </c>
       <c r="U26" t="n">
         <v>3157.617275179708</v>
       </c>
       <c r="V26" t="n">
-        <v>2923.902121182236</v>
+        <v>2923.902121182234</v>
       </c>
       <c r="W26" t="n">
-        <v>2664.631311146422</v>
+        <v>2664.631311146421</v>
       </c>
       <c r="X26" t="n">
-        <v>2385.865290774501</v>
+        <v>2385.865290774499</v>
       </c>
       <c r="Y26" t="n">
-        <v>2095.587555456924</v>
+        <v>2095.587555456922</v>
       </c>
     </row>
     <row r="27">
@@ -6294,25 +6294,25 @@
         <v>353.5805440564359</v>
       </c>
       <c r="G27" t="n">
-        <v>225.1503571433492</v>
+        <v>225.1503571433491</v>
       </c>
       <c r="H27" t="n">
-        <v>128.0935758571979</v>
+        <v>128.0935758571978</v>
       </c>
       <c r="I27" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236901</v>
       </c>
       <c r="J27" t="n">
         <v>157.8594836382962</v>
       </c>
       <c r="K27" t="n">
-        <v>434.5624507666912</v>
+        <v>434.5624507666913</v>
       </c>
       <c r="L27" t="n">
-        <v>863.8672136975981</v>
+        <v>863.8672136975983</v>
       </c>
       <c r="M27" t="n">
-        <v>947.80090504596</v>
+        <v>947.8009050459599</v>
       </c>
       <c r="N27" t="n">
         <v>1535.108840640795</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.8115547448185</v>
+        <v>436.811554744819</v>
       </c>
       <c r="C28" t="n">
-        <v>370.4597053130843</v>
+        <v>370.4597053130847</v>
       </c>
       <c r="D28" t="n">
-        <v>320.6519322474326</v>
+        <v>320.6519322474329</v>
       </c>
       <c r="E28" t="n">
-        <v>271.9070381153369</v>
+        <v>271.9070381153372</v>
       </c>
       <c r="F28" t="n">
-        <v>222.6905032476996</v>
+        <v>222.6905032476998</v>
       </c>
       <c r="G28" t="n">
-        <v>157.2849703736961</v>
+        <v>157.2849703736962</v>
       </c>
       <c r="H28" t="n">
-        <v>103.400022961616</v>
+        <v>103.4000229616161</v>
       </c>
       <c r="I28" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236901</v>
       </c>
       <c r="J28" t="n">
         <v>129.6591170611761</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9508107464047</v>
+        <v>292.9508107464046</v>
       </c>
       <c r="L28" t="n">
-        <v>531.2095270480794</v>
+        <v>531.2095270480802</v>
       </c>
       <c r="M28" t="n">
-        <v>788.8356752321545</v>
+        <v>788.8356752321553</v>
       </c>
       <c r="N28" t="n">
         <v>1045.977034613511</v>
       </c>
       <c r="O28" t="n">
-        <v>1280.296266092756</v>
+        <v>1280.296266092757</v>
       </c>
       <c r="P28" t="n">
-        <v>1474.119912343313</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q28" t="n">
-        <v>1558.083980830826</v>
+        <v>1558.083980830827</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.071529484705</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S28" t="n">
-        <v>1416.984372122637</v>
+        <v>1416.984372122638</v>
       </c>
       <c r="T28" t="n">
-        <v>1288.138129556116</v>
+        <v>1288.138129556117</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.225651732796</v>
+        <v>1104.225651732797</v>
       </c>
       <c r="V28" t="n">
-        <v>946.7544673978042</v>
+        <v>946.754467397805</v>
       </c>
       <c r="W28" t="n">
-        <v>763.8621860217888</v>
+        <v>763.8621860217895</v>
       </c>
       <c r="X28" t="n">
-        <v>635.8738420237502</v>
+        <v>635.8738420237507</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.1028033226128</v>
+        <v>517.1028033226133</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.80813604549</v>
+        <v>1804.808136045491</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.138497484883</v>
+        <v>1526.138497484884</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.578652818692</v>
+        <v>1256.578652818693</v>
       </c>
       <c r="E29" t="n">
-        <v>965.0570530313846</v>
+        <v>965.0570530313848</v>
       </c>
       <c r="F29" t="n">
         <v>654.1699824481407</v>
@@ -6461,16 +6461,16 @@
         <v>69.98215699236903</v>
       </c>
       <c r="J29" t="n">
-        <v>289.5691431564578</v>
+        <v>279.1001163056683</v>
       </c>
       <c r="K29" t="n">
-        <v>700.4291941146662</v>
+        <v>689.9601672638768</v>
       </c>
       <c r="L29" t="n">
-        <v>1134.548507345414</v>
+        <v>1225.288644611089</v>
       </c>
       <c r="M29" t="n">
-        <v>1714.479684777815</v>
+        <v>1815.688848894279</v>
       </c>
       <c r="N29" t="n">
         <v>2291.524683130151</v>
@@ -6531,25 +6531,25 @@
         <v>353.5805440564359</v>
       </c>
       <c r="G30" t="n">
-        <v>225.1503571433492</v>
+        <v>225.1503571433491</v>
       </c>
       <c r="H30" t="n">
-        <v>128.0935758571979</v>
+        <v>128.0935758571978</v>
       </c>
       <c r="I30" t="n">
         <v>69.98215699236903</v>
       </c>
       <c r="J30" t="n">
-        <v>157.8594836382962</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="K30" t="n">
-        <v>434.5624507666912</v>
+        <v>346.685124120764</v>
       </c>
       <c r="L30" t="n">
-        <v>863.8672136975981</v>
+        <v>775.9898870516711</v>
       </c>
       <c r="M30" t="n">
-        <v>1422.98213793888</v>
+        <v>1335.104811292953</v>
       </c>
       <c r="N30" t="n">
         <v>1535.108840640795</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.8115547448183</v>
+        <v>436.8115547448185</v>
       </c>
       <c r="C31" t="n">
-        <v>370.4597053130842</v>
+        <v>370.4597053130843</v>
       </c>
       <c r="D31" t="n">
-        <v>320.6519322474325</v>
+        <v>320.6519322474326</v>
       </c>
       <c r="E31" t="n">
-        <v>271.9070381153368</v>
+        <v>271.9070381153369</v>
       </c>
       <c r="F31" t="n">
-        <v>222.6905032476995</v>
+        <v>222.6905032476996</v>
       </c>
       <c r="G31" t="n">
         <v>157.2849703736961</v>
@@ -6649,22 +6649,22 @@
         <v>1416.984372122637</v>
       </c>
       <c r="T31" t="n">
-        <v>1288.138129556116</v>
+        <v>1288.138129556117</v>
       </c>
       <c r="U31" t="n">
         <v>1104.225651732796</v>
       </c>
       <c r="V31" t="n">
-        <v>946.7544673978039</v>
+        <v>946.7544673978042</v>
       </c>
       <c r="W31" t="n">
-        <v>763.8621860217885</v>
+        <v>763.8621860217888</v>
       </c>
       <c r="X31" t="n">
-        <v>635.8738420237498</v>
+        <v>635.8738420237502</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.1028033226125</v>
+        <v>517.1028033226128</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1804.80813604549</v>
       </c>
       <c r="C32" t="n">
-        <v>1526.138497484883</v>
+        <v>1526.138497484882</v>
       </c>
       <c r="D32" t="n">
         <v>1256.578652818692</v>
       </c>
       <c r="E32" t="n">
-        <v>965.0570530313846</v>
+        <v>965.0570530313839</v>
       </c>
       <c r="F32" t="n">
-        <v>654.1699824481404</v>
+        <v>654.1699824481398</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8876613627826</v>
+        <v>341.8876613627817</v>
       </c>
       <c r="H32" t="n">
         <v>118.0404684219804</v>
@@ -6707,16 +6707,16 @@
         <v>1235.757671461878</v>
       </c>
       <c r="M32" t="n">
-        <v>1815.688848894279</v>
+        <v>1826.157875745068</v>
       </c>
       <c r="N32" t="n">
-        <v>2291.524683130151</v>
+        <v>2403.202874097405</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.809143078167</v>
+        <v>2901.487334045421</v>
       </c>
       <c r="P32" t="n">
-        <v>3197.75542566416</v>
+        <v>3208.224452514949</v>
       </c>
       <c r="Q32" t="n">
         <v>3452.407317645637</v>
@@ -6728,7 +6728,7 @@
         <v>3427.848059106665</v>
       </c>
       <c r="T32" t="n">
-        <v>3309.19388773082</v>
+        <v>3309.193887730819</v>
       </c>
       <c r="U32" t="n">
         <v>3157.617275179708</v>
@@ -6743,7 +6743,7 @@
         <v>2385.8652907745</v>
       </c>
       <c r="Y32" t="n">
-        <v>2095.587555456924</v>
+        <v>2095.587555456923</v>
       </c>
     </row>
     <row r="33">
@@ -6768,10 +6768,10 @@
         <v>353.5805440564359</v>
       </c>
       <c r="G33" t="n">
-        <v>225.1503571433492</v>
+        <v>225.1503571433491</v>
       </c>
       <c r="H33" t="n">
-        <v>128.0935758571979</v>
+        <v>128.0935758571978</v>
       </c>
       <c r="I33" t="n">
         <v>69.98215699236903</v>
@@ -6780,10 +6780,10 @@
         <v>157.8594836382962</v>
       </c>
       <c r="K33" t="n">
-        <v>434.5624507666912</v>
+        <v>434.5624507666913</v>
       </c>
       <c r="L33" t="n">
-        <v>863.8672136975981</v>
+        <v>863.8672136975983</v>
       </c>
       <c r="M33" t="n">
         <v>1422.98213793888</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.8115547448183</v>
+        <v>436.8115547448189</v>
       </c>
       <c r="C34" t="n">
-        <v>370.4597053130842</v>
+        <v>370.4597053130847</v>
       </c>
       <c r="D34" t="n">
-        <v>320.6519322474325</v>
+        <v>320.6519322474329</v>
       </c>
       <c r="E34" t="n">
-        <v>271.9070381153368</v>
+        <v>271.9070381153372</v>
       </c>
       <c r="F34" t="n">
-        <v>222.6905032476995</v>
+        <v>222.6905032476998</v>
       </c>
       <c r="G34" t="n">
-        <v>157.2849703736961</v>
+        <v>157.2849703736962</v>
       </c>
       <c r="H34" t="n">
-        <v>103.400022961616</v>
+        <v>103.4000229616161</v>
       </c>
       <c r="I34" t="n">
         <v>69.98215699236903</v>
@@ -6859,49 +6859,49 @@
         <v>129.6591170611761</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9508107464047</v>
+        <v>292.9508107464046</v>
       </c>
       <c r="L34" t="n">
-        <v>531.2095270480794</v>
+        <v>531.2095270480793</v>
       </c>
       <c r="M34" t="n">
-        <v>788.835675232154</v>
+        <v>788.8356752321542</v>
       </c>
       <c r="N34" t="n">
-        <v>1045.97703461351</v>
+        <v>1045.977034613511</v>
       </c>
       <c r="O34" t="n">
         <v>1280.296266092756</v>
       </c>
       <c r="P34" t="n">
-        <v>1474.119912343313</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q34" t="n">
-        <v>1558.083980830826</v>
+        <v>1558.083980830827</v>
       </c>
       <c r="R34" t="n">
-        <v>1523.071529484705</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S34" t="n">
-        <v>1416.984372122637</v>
+        <v>1416.984372122638</v>
       </c>
       <c r="T34" t="n">
-        <v>1288.138129556116</v>
+        <v>1288.138129556117</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.225651732796</v>
+        <v>1104.225651732797</v>
       </c>
       <c r="V34" t="n">
-        <v>946.754467397804</v>
+        <v>946.7544673978048</v>
       </c>
       <c r="W34" t="n">
-        <v>763.8621860217886</v>
+        <v>763.8621860217894</v>
       </c>
       <c r="X34" t="n">
-        <v>635.8738420237499</v>
+        <v>635.8738420237506</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.1028033226125</v>
+        <v>517.1028033226132</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>1442.99309305265</v>
       </c>
       <c r="C35" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D35" t="n">
-        <v>994.2832301840892</v>
+        <v>994.2832301840897</v>
       </c>
       <c r="E35" t="n">
-        <v>752.5214405759004</v>
+        <v>752.5214405759009</v>
       </c>
       <c r="F35" t="n">
-        <v>491.3941801717752</v>
+        <v>491.3941801717756</v>
       </c>
       <c r="G35" t="n">
-        <v>228.8716692655359</v>
+        <v>228.871669265536</v>
       </c>
       <c r="H35" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I35" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J35" t="n">
-        <v>173.1621085514773</v>
+        <v>173.1621085514778</v>
       </c>
       <c r="K35" t="n">
-        <v>482.8129953932213</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L35" t="n">
-        <v>916.9323086239687</v>
+        <v>916.9323086239693</v>
       </c>
       <c r="M35" t="n">
         <v>1406.123348790695</v>
@@ -6950,22 +6950,22 @@
         <v>1881.959183026567</v>
       </c>
       <c r="O35" t="n">
-        <v>2279.034478858118</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P35" t="n">
-        <v>2585.771597327646</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q35" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R35" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S35" t="n">
-        <v>2717.71434485999</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T35" t="n">
-        <v>2648.819983663264</v>
+        <v>2648.819983663266</v>
       </c>
       <c r="U35" t="n">
         <v>2547.003181291273</v>
@@ -6974,13 +6974,13 @@
         <v>2363.047837472919</v>
       </c>
       <c r="W35" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X35" t="n">
         <v>1924.530627423422</v>
       </c>
       <c r="Y35" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I36" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J36" t="n">
-        <v>142.6616131497804</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="K36" t="n">
-        <v>419.3645802781753</v>
+        <v>331.4872536322482</v>
       </c>
       <c r="L36" t="n">
-        <v>848.6693432090823</v>
+        <v>760.7920165631554</v>
       </c>
       <c r="M36" t="n">
-        <v>1407.784267450364</v>
+        <v>1319.906940804437</v>
       </c>
       <c r="N36" t="n">
         <v>1519.910970152279</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.19514857084712</v>
+        <v>91.19514857084738</v>
       </c>
       <c r="C37" t="n">
-        <v>74.60310931823184</v>
+        <v>74.60310931823203</v>
       </c>
       <c r="D37" t="n">
-        <v>74.55514643169899</v>
+        <v>74.55514643169911</v>
       </c>
       <c r="E37" t="n">
-        <v>74.55514643169899</v>
+        <v>74.55514643169911</v>
       </c>
       <c r="F37" t="n">
-        <v>74.55514643169899</v>
+        <v>74.55514643169911</v>
       </c>
       <c r="G37" t="n">
-        <v>58.90942373681441</v>
+        <v>58.90942373681449</v>
       </c>
       <c r="H37" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I37" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J37" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="K37" t="n">
         <v>116.8668160726173</v>
       </c>
       <c r="L37" t="n">
-        <v>253.9163682578274</v>
+        <v>253.9163682578275</v>
       </c>
       <c r="M37" t="n">
-        <v>410.333352325438</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N37" t="n">
-        <v>566.2655475903298</v>
+        <v>566.2655475903299</v>
       </c>
       <c r="O37" t="n">
-        <v>699.3756149531109</v>
+        <v>699.375614953111</v>
       </c>
       <c r="P37" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.9900970872035</v>
+        <v>779.3766418777835</v>
       </c>
       <c r="R37" t="n">
-        <v>791.9900970872035</v>
+        <v>779.3766418777835</v>
       </c>
       <c r="S37" t="n">
-        <v>723.0492946948334</v>
+        <v>723.049294694834</v>
       </c>
       <c r="T37" t="n">
-        <v>643.9628623074318</v>
+        <v>643.9628623074324</v>
       </c>
       <c r="U37" t="n">
-        <v>509.8101946632303</v>
+        <v>509.8101946632308</v>
       </c>
       <c r="V37" t="n">
-        <v>402.0988205073573</v>
+        <v>402.0988205073578</v>
       </c>
       <c r="W37" t="n">
-        <v>268.9663493104608</v>
+        <v>268.9663493104613</v>
       </c>
       <c r="X37" t="n">
-        <v>190.737815491541</v>
+        <v>190.7378154915414</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.7265869695225</v>
+        <v>121.7265869695228</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1442.99309305265</v>
       </c>
       <c r="C38" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D38" t="n">
-        <v>994.2832301840895</v>
+        <v>994.2832301840899</v>
       </c>
       <c r="E38" t="n">
-        <v>752.5214405759007</v>
+        <v>752.521440575901</v>
       </c>
       <c r="F38" t="n">
-        <v>491.3941801717754</v>
+        <v>491.3941801717758</v>
       </c>
       <c r="G38" t="n">
-        <v>228.8716692655359</v>
+        <v>228.871669265536</v>
       </c>
       <c r="H38" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I38" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J38" t="n">
-        <v>173.1621085514774</v>
+        <v>173.1621085514778</v>
       </c>
       <c r="K38" t="n">
-        <v>482.8129953932214</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L38" t="n">
-        <v>916.9323086239688</v>
+        <v>916.9323086239693</v>
       </c>
       <c r="M38" t="n">
         <v>1406.123348790695</v>
@@ -7187,37 +7187,37 @@
         <v>1881.959183026567</v>
       </c>
       <c r="O38" t="n">
-        <v>2279.034478858118</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P38" t="n">
-        <v>2585.771597327646</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q38" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R38" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S38" t="n">
-        <v>2717.714344859991</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T38" t="n">
-        <v>2648.819983663265</v>
+        <v>2648.819983663266</v>
       </c>
       <c r="U38" t="n">
-        <v>2547.003181291273</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V38" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W38" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X38" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y38" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I39" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J39" t="n">
         <v>142.6616131497804</v>
       </c>
       <c r="K39" t="n">
-        <v>419.3645802781753</v>
+        <v>419.3645802781755</v>
       </c>
       <c r="L39" t="n">
-        <v>848.6693432090823</v>
+        <v>848.6693432090826</v>
       </c>
       <c r="M39" t="n">
-        <v>1407.784267450364</v>
+        <v>1407.784267450365</v>
       </c>
       <c r="N39" t="n">
         <v>1519.910970152279</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.8086037802678</v>
+        <v>91.19514857084727</v>
       </c>
       <c r="C40" t="n">
-        <v>87.21656452765248</v>
+        <v>74.60310931823194</v>
       </c>
       <c r="D40" t="n">
-        <v>87.16860164111962</v>
+        <v>74.55514643169906</v>
       </c>
       <c r="E40" t="n">
-        <v>87.16860164111962</v>
+        <v>74.55514643169906</v>
       </c>
       <c r="F40" t="n">
-        <v>87.16860164111962</v>
+        <v>74.55514643169906</v>
       </c>
       <c r="G40" t="n">
-        <v>71.52287894623505</v>
+        <v>58.90942373681446</v>
       </c>
       <c r="H40" t="n">
-        <v>67.39774171327382</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I40" t="n">
-        <v>67.39774171327382</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J40" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="K40" t="n">
         <v>116.8668160726173</v>
       </c>
       <c r="L40" t="n">
-        <v>253.9163682578274</v>
+        <v>253.9163682578275</v>
       </c>
       <c r="M40" t="n">
-        <v>410.333352325438</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N40" t="n">
-        <v>566.2655475903298</v>
+        <v>566.2655475903299</v>
       </c>
       <c r="O40" t="n">
-        <v>699.3756149531109</v>
+        <v>699.375614953111</v>
       </c>
       <c r="P40" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="R40" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="S40" t="n">
-        <v>735.6627499042539</v>
+        <v>735.662749904254</v>
       </c>
       <c r="T40" t="n">
-        <v>656.5763175168523</v>
+        <v>643.962862307432</v>
       </c>
       <c r="U40" t="n">
-        <v>522.4236498726509</v>
+        <v>509.8101946632306</v>
       </c>
       <c r="V40" t="n">
-        <v>414.7122757167779</v>
+        <v>402.0988205073576</v>
       </c>
       <c r="W40" t="n">
-        <v>281.5798045198815</v>
+        <v>268.9663493104611</v>
       </c>
       <c r="X40" t="n">
-        <v>203.3512707009617</v>
+        <v>190.7378154915412</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.3400421789432</v>
+        <v>121.7265869695227</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1442.99309305265</v>
+        <v>1442.993093052651</v>
       </c>
       <c r="C41" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D41" t="n">
-        <v>994.2832301840892</v>
+        <v>994.2832301840904</v>
       </c>
       <c r="E41" t="n">
-        <v>752.5214405759004</v>
+        <v>752.5214405759017</v>
       </c>
       <c r="F41" t="n">
-        <v>491.3941801717751</v>
+        <v>491.3941801717765</v>
       </c>
       <c r="G41" t="n">
-        <v>228.871669265536</v>
+        <v>228.8716692655359</v>
       </c>
       <c r="H41" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I41" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J41" t="n">
-        <v>173.1621085514773</v>
+        <v>173.1621085514776</v>
       </c>
       <c r="K41" t="n">
-        <v>482.8129953932213</v>
+        <v>482.8129953932214</v>
       </c>
       <c r="L41" t="n">
-        <v>916.9323086239687</v>
+        <v>916.9323086239689</v>
       </c>
       <c r="M41" t="n">
         <v>1406.123348790695</v>
@@ -7424,37 +7424,37 @@
         <v>1881.959183026567</v>
       </c>
       <c r="O41" t="n">
-        <v>2279.034478858118</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P41" t="n">
-        <v>2585.771597327646</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q41" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R41" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S41" t="n">
-        <v>2717.714344859991</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T41" t="n">
-        <v>2648.819983663265</v>
+        <v>2648.819983663266</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.003181291273</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V41" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W41" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X41" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y41" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I42" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J42" t="n">
         <v>142.6616131497804</v>
       </c>
       <c r="K42" t="n">
-        <v>419.3645802781753</v>
+        <v>419.3645802781755</v>
       </c>
       <c r="L42" t="n">
-        <v>848.6693432090823</v>
+        <v>848.6693432090826</v>
       </c>
       <c r="M42" t="n">
-        <v>1407.784267450364</v>
+        <v>1407.784267450365</v>
       </c>
       <c r="N42" t="n">
         <v>1519.910970152279</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.19514857084724</v>
+        <v>91.19514857084704</v>
       </c>
       <c r="C43" t="n">
-        <v>74.60310931823193</v>
+        <v>74.60310931823177</v>
       </c>
       <c r="D43" t="n">
-        <v>74.55514643169904</v>
+        <v>74.55514643169894</v>
       </c>
       <c r="E43" t="n">
-        <v>74.55514643169904</v>
+        <v>74.55514643169894</v>
       </c>
       <c r="F43" t="n">
-        <v>74.55514643169904</v>
+        <v>74.55514643169894</v>
       </c>
       <c r="G43" t="n">
-        <v>58.90942373681445</v>
+        <v>58.9094237368144</v>
       </c>
       <c r="H43" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I43" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J43" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="K43" t="n">
         <v>116.8668160726173</v>
       </c>
       <c r="L43" t="n">
-        <v>253.9163682578274</v>
+        <v>253.9163682578275</v>
       </c>
       <c r="M43" t="n">
-        <v>410.333352325438</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N43" t="n">
-        <v>566.2655475903298</v>
+        <v>566.2655475903299</v>
       </c>
       <c r="O43" t="n">
-        <v>699.3756149531109</v>
+        <v>699.375614953111</v>
       </c>
       <c r="P43" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.9900970872035</v>
+        <v>779.3766418777824</v>
       </c>
       <c r="R43" t="n">
-        <v>791.9900970872035</v>
+        <v>779.3766418777824</v>
       </c>
       <c r="S43" t="n">
-        <v>735.6627499042539</v>
+        <v>723.049294694833</v>
       </c>
       <c r="T43" t="n">
-        <v>656.5763175168523</v>
+        <v>643.9628623074315</v>
       </c>
       <c r="U43" t="n">
-        <v>522.4236498726508</v>
+        <v>509.81019466323</v>
       </c>
       <c r="V43" t="n">
-        <v>414.7122757167778</v>
+        <v>402.0988205073571</v>
       </c>
       <c r="W43" t="n">
-        <v>281.5798045198813</v>
+        <v>268.9663493104607</v>
       </c>
       <c r="X43" t="n">
-        <v>203.3512707009615</v>
+        <v>190.7378154915409</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.7265869695227</v>
+        <v>121.7265869695224</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1442.99309305265</v>
+        <v>1442.993093052649</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.083264671162</v>
+        <v>1214.083264671161</v>
       </c>
       <c r="D44" t="n">
-        <v>994.2832301840897</v>
+        <v>994.2832301840892</v>
       </c>
       <c r="E44" t="n">
-        <v>752.5214405759011</v>
+        <v>752.5214405759007</v>
       </c>
       <c r="F44" t="n">
-        <v>491.3941801717756</v>
+        <v>491.3941801717758</v>
       </c>
       <c r="G44" t="n">
         <v>228.871669265536</v>
       </c>
       <c r="H44" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="I44" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J44" t="n">
-        <v>173.1621085514774</v>
+        <v>173.1621085514773</v>
       </c>
       <c r="K44" t="n">
         <v>482.8129953932213</v>
@@ -7655,43 +7655,43 @@
         <v>916.9323086239688</v>
       </c>
       <c r="M44" t="n">
-        <v>1406.123348790694</v>
+        <v>1406.123348790695</v>
       </c>
       <c r="N44" t="n">
-        <v>1881.959183026566</v>
+        <v>1881.959183026567</v>
       </c>
       <c r="O44" t="n">
-        <v>2279.034478858118</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P44" t="n">
-        <v>2585.771597327646</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q44" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R44" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S44" t="n">
-        <v>2717.714344859991</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T44" t="n">
-        <v>2648.819983663265</v>
+        <v>2648.819983663266</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.003181291273</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V44" t="n">
         <v>2363.047837472919</v>
       </c>
       <c r="W44" t="n">
-        <v>2153.536837616225</v>
+        <v>2153.536837616224</v>
       </c>
       <c r="X44" t="n">
-        <v>1924.530627423423</v>
+        <v>1924.530627423422</v>
       </c>
       <c r="Y44" t="n">
-        <v>1684.012702284965</v>
+        <v>1684.012702284964</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I45" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J45" t="n">
         <v>142.6616131497804</v>
       </c>
       <c r="K45" t="n">
-        <v>419.3645802781753</v>
+        <v>419.3645802781755</v>
       </c>
       <c r="L45" t="n">
-        <v>848.6693432090823</v>
+        <v>848.6693432090826</v>
       </c>
       <c r="M45" t="n">
-        <v>1407.784267450364</v>
+        <v>1407.784267450365</v>
       </c>
       <c r="N45" t="n">
         <v>1519.910970152279</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.19514857084724</v>
+        <v>103.8086037802675</v>
       </c>
       <c r="C46" t="n">
-        <v>74.60310931823193</v>
+        <v>87.21656452765214</v>
       </c>
       <c r="D46" t="n">
-        <v>74.55514643169904</v>
+        <v>87.16860164111922</v>
       </c>
       <c r="E46" t="n">
-        <v>74.55514643169904</v>
+        <v>87.16860164111922</v>
       </c>
       <c r="F46" t="n">
-        <v>74.55514643169904</v>
+        <v>87.16860164111922</v>
       </c>
       <c r="G46" t="n">
-        <v>58.90942373681445</v>
+        <v>71.5228789462346</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78428650385318</v>
+        <v>67.39774171327332</v>
       </c>
       <c r="I46" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="J46" t="n">
-        <v>54.78428650385318</v>
+        <v>54.7842865038532</v>
       </c>
       <c r="K46" t="n">
         <v>116.8668160726173</v>
       </c>
       <c r="L46" t="n">
-        <v>253.9163682578274</v>
+        <v>253.9163682578275</v>
       </c>
       <c r="M46" t="n">
-        <v>410.333352325438</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N46" t="n">
-        <v>566.2655475903298</v>
+        <v>566.2655475903299</v>
       </c>
       <c r="O46" t="n">
-        <v>699.3756149531109</v>
+        <v>699.375614953111</v>
       </c>
       <c r="P46" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="R46" t="n">
-        <v>791.9900970872035</v>
+        <v>791.9900970872036</v>
       </c>
       <c r="S46" t="n">
-        <v>735.6627499042539</v>
+        <v>735.662749904254</v>
       </c>
       <c r="T46" t="n">
-        <v>643.962862307432</v>
+        <v>656.5763175168524</v>
       </c>
       <c r="U46" t="n">
-        <v>509.8101946632306</v>
+        <v>522.4236498726509</v>
       </c>
       <c r="V46" t="n">
-        <v>402.0988205073576</v>
+        <v>414.7122757167779</v>
       </c>
       <c r="W46" t="n">
-        <v>268.9663493104611</v>
+        <v>281.5798045198813</v>
       </c>
       <c r="X46" t="n">
-        <v>190.7378154915412</v>
+        <v>203.3512707009615</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.7265869695227</v>
+        <v>134.340042178943</v>
       </c>
     </row>
   </sheetData>
@@ -8696,19 +8696,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>90.23522973590876</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>350.2067156191635</v>
+        <v>87.90874493166815</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>341.4965819147518</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>121.0168334487718</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>212.7843620326941</v>
+        <v>498.6132279395657</v>
       </c>
       <c r="N12" t="n">
-        <v>29.90474766193738</v>
+        <v>29.90474766193725</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.0365845597585</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,13 +8927,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>117.3489104259959</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>280.3274676241645</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>45.7090508243034</v>
+        <v>45.70905082430306</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.252042099833</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,19 +9170,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>280.3274676241629</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>465.5663217580187</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0168334487719</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>45.7090508243034</v>
+        <v>45.70905082430181</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.252042099833</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>280.3274676241629</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9416,10 +9416,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>388.8644067393772</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0168334487718</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>469.4189628108496</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>40.65403313633109</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>45.70905082430181</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9641,7 +9641,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>238.9194529990676</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>269.2908491155142</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0168334487718</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>151.2448598588847</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>40.65403313633097</v>
       </c>
       <c r="N24" t="n">
-        <v>45.70905082430316</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>125.4355395488179</v>
+        <v>125.4355395488174</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250399</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>143.1640433204375</v>
+        <v>231.9290197304644</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>143.1640433204372</v>
+        <v>143.1640433204371</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250399</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>143.1640433204372</v>
+        <v>231.9290197304644</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>143.1640433204372</v>
+        <v>143.1640433204366</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>143.1640433204372</v>
+        <v>143.1640433204366</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.367593540682</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>143.1640433204372</v>
+        <v>143.1640433204366</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.8716252173192</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.8829421750009</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>31.0693416971381</v>
+        <v>307.7781998774116</v>
       </c>
       <c r="G11" t="n">
-        <v>309.1594978745046</v>
+        <v>276.6393367515279</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6087210113936</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57772831531527</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.54719260666909</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>117.4676296620864</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.0608464255998</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>231.3780024574984</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>256.6781019354553</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.3749579644006</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-2.259525899717119e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.882942175001</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.864246219529</v>
       </c>
       <c r="E14" t="n">
         <v>288.6063837894345</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>192.3928368353177</v>
       </c>
       <c r="G14" t="n">
-        <v>18.76305735447908</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.5471926066693</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.0608464255999</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.3780024574984</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.3749579644007</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.215642182970765e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.771766154868274e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19146.9157876826</v>
+        <v>19146.91578768261</v>
       </c>
       <c r="C2" t="n">
         <v>19146.9157876826</v>
       </c>
       <c r="D2" t="n">
-        <v>19146.9157876826</v>
+        <v>19146.91578768261</v>
       </c>
       <c r="E2" t="n">
-        <v>16333.86285900306</v>
+        <v>16333.86285900309</v>
       </c>
       <c r="F2" t="n">
         <v>17130.47704698525</v>
       </c>
       <c r="G2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235452</v>
       </c>
       <c r="H2" t="n">
-        <v>19190.60151235454</v>
+        <v>19190.60151235452</v>
       </c>
       <c r="I2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235451</v>
       </c>
       <c r="J2" t="n">
-        <v>19190.6015123545</v>
+        <v>19190.60151235449</v>
       </c>
       <c r="K2" t="n">
         <v>19190.60151235452</v>
       </c>
       <c r="L2" t="n">
-        <v>19190.6015123545</v>
+        <v>19190.60151235449</v>
       </c>
       <c r="M2" t="n">
         <v>19190.60151235455</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342836.5759456616</v>
+        <v>342836.5759456618</v>
       </c>
       <c r="F3" t="n">
-        <v>29555.46087811044</v>
+        <v>29555.46087811045</v>
       </c>
       <c r="G3" t="n">
         <v>56437.75408533525</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95143.32741586954</v>
+        <v>95143.32741586943</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56437.75408533525</v>
+        <v>56437.75408533521</v>
       </c>
       <c r="M3" t="n">
-        <v>117882.488248936</v>
+        <v>117882.4882489361</v>
       </c>
       <c r="N3" t="n">
-        <v>25264.47989534267</v>
+        <v>25264.47989534275</v>
       </c>
       <c r="O3" t="n">
-        <v>25347.42903908046</v>
+        <v>25347.42903908051</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>265672.9839936035</v>
       </c>
       <c r="F4" t="n">
-        <v>275991.7514658779</v>
+        <v>275991.751465878</v>
       </c>
       <c r="G4" t="n">
         <v>322791.7341880638</v>
@@ -26439,25 +26439,25 @@
         <v>322791.7341880638</v>
       </c>
       <c r="J4" t="n">
-        <v>319321.5699076309</v>
+        <v>319321.5699076308</v>
       </c>
       <c r="K4" t="n">
-        <v>319321.5699076309</v>
+        <v>319321.5699076308</v>
       </c>
       <c r="L4" t="n">
-        <v>319321.5699076309</v>
+        <v>319321.5699076308</v>
       </c>
       <c r="M4" t="n">
+        <v>318317.5955738486</v>
+      </c>
+      <c r="N4" t="n">
         <v>318317.5955738487</v>
-      </c>
-      <c r="N4" t="n">
-        <v>318317.5955738488</v>
       </c>
       <c r="O4" t="n">
         <v>318317.5955738487</v>
       </c>
       <c r="P4" t="n">
-        <v>318317.5955738487</v>
+        <v>318317.5955738486</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>48555.18356209813</v>
       </c>
       <c r="G5" t="n">
-        <v>54486.01549734818</v>
+        <v>54486.0154973482</v>
       </c>
       <c r="H5" t="n">
-        <v>54486.01549734818</v>
+        <v>54486.0154973482</v>
       </c>
       <c r="I5" t="n">
-        <v>54486.01549734818</v>
+        <v>54486.01549734821</v>
       </c>
       <c r="J5" t="n">
-        <v>64774.13229132094</v>
+        <v>64774.13229132093</v>
       </c>
       <c r="K5" t="n">
         <v>64774.13229132094</v>
@@ -26500,16 +26500,16 @@
         <v>64774.13229132094</v>
       </c>
       <c r="M5" t="n">
-        <v>57365.17562717777</v>
+        <v>57365.17562717778</v>
       </c>
       <c r="N5" t="n">
-        <v>57365.17562717777</v>
+        <v>57365.17562717778</v>
       </c>
       <c r="O5" t="n">
-        <v>57365.17562717776</v>
+        <v>57365.17562717778</v>
       </c>
       <c r="P5" t="n">
-        <v>57365.17562717776</v>
+        <v>57365.17562717778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420625.3396372168</v>
+        <v>-420629.7082096839</v>
       </c>
       <c r="C6" t="n">
-        <v>-420625.3396372168</v>
+        <v>-420629.708209684</v>
       </c>
       <c r="D6" t="n">
-        <v>-420625.3396372168</v>
+        <v>-420629.7082096839</v>
       </c>
       <c r="E6" t="n">
-        <v>-634459.296139072</v>
+        <v>-634744.9700044075</v>
       </c>
       <c r="F6" t="n">
-        <v>-336971.9188591012</v>
+        <v>-337177.9313056382</v>
       </c>
       <c r="G6" t="n">
-        <v>-414524.9022583928</v>
+        <v>-414524.9022583927</v>
       </c>
       <c r="H6" t="n">
         <v>-358087.1481730575</v>
@@ -26543,25 +26543,25 @@
         <v>-358087.1481730575</v>
       </c>
       <c r="J6" t="n">
-        <v>-460048.4281024669</v>
+        <v>-460048.4281024667</v>
       </c>
       <c r="K6" t="n">
-        <v>-364905.1006865973</v>
+        <v>-364905.1006865972</v>
       </c>
       <c r="L6" t="n">
-        <v>-421342.8547719326</v>
+        <v>-421342.8547719325</v>
       </c>
       <c r="M6" t="n">
-        <v>-474374.657937608</v>
+        <v>-474374.6579376079</v>
       </c>
       <c r="N6" t="n">
-        <v>-381756.6495840146</v>
+        <v>-381756.6495840147</v>
       </c>
       <c r="O6" t="n">
-        <v>-381839.5987277523</v>
+        <v>-381839.5987277525</v>
       </c>
       <c r="P6" t="n">
-        <v>-356492.1696886719</v>
+        <v>-356492.1696886718</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>172.7786715121887</v>
       </c>
       <c r="J2" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K2" t="n">
         <v>102.2314789055197</v>
       </c>
       <c r="L2" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M2" t="n">
+        <v>151.4936909828473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>151.4936909828473</v>
+      </c>
+      <c r="O2" t="n">
         <v>151.4936909828474</v>
-      </c>
-      <c r="N2" t="n">
-        <v>151.4936909828474</v>
-      </c>
-      <c r="O2" t="n">
-        <v>151.4936909828473</v>
       </c>
       <c r="P2" t="n">
         <v>151.4936909828473</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="F3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.302512706989</v>
       </c>
       <c r="H3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.302512706989</v>
       </c>
       <c r="I3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="J3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="K3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="L3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="M3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="O3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="P3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069888</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435787</v>
+        <v>504.8668763435785</v>
       </c>
       <c r="F4" t="n">
         <v>608.0179372529218</v>
@@ -26808,10 +26808,10 @@
         <v>608.0179372529218</v>
       </c>
       <c r="I4" t="n">
-        <v>608.0179372529218</v>
+        <v>608.017937252922</v>
       </c>
       <c r="J4" t="n">
-        <v>874.7769624046128</v>
+        <v>874.7769624046127</v>
       </c>
       <c r="K4" t="n">
         <v>874.7769624046128</v>
@@ -26820,16 +26820,16 @@
         <v>874.7769624046128</v>
       </c>
       <c r="M4" t="n">
-        <v>684.8035812981648</v>
+        <v>684.803581298165</v>
       </c>
       <c r="N4" t="n">
-        <v>684.8035812981648</v>
+        <v>684.803581298165</v>
       </c>
       <c r="O4" t="n">
-        <v>684.8035812981648</v>
+        <v>684.803581298165</v>
       </c>
       <c r="P4" t="n">
-        <v>684.8035812981648</v>
+        <v>684.803581298165</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.68428629885061</v>
+        <v>31.68428629885058</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666907</v>
+        <v>70.54719260666901</v>
       </c>
       <c r="M2" t="n">
-        <v>49.26221207732767</v>
+        <v>49.2622120773277</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885058</v>
+        <v>31.68428629885064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.3025127069886</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435787</v>
+        <v>504.8668763435785</v>
       </c>
       <c r="F4" t="n">
-        <v>103.1510609093431</v>
+        <v>103.1510609093433</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>266.759025151691</v>
+        <v>266.7590251516907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>314.8934952371307</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093431</v>
+        <v>103.1510609093433</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885061</v>
+        <v>31.68428629885058</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.8668763435787</v>
+        <v>504.8668763435785</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093431</v>
+        <v>103.1510609093433</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.05922438752578</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S11" t="n">
         <v>102.2314789055197</v>
@@ -28181,61 +28181,61 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>40.8500642360024</v>
+      </c>
+      <c r="S12" t="n">
+        <v>46.04829546435933</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>102.2314789055197</v>
       </c>
-      <c r="H12" t="n">
-        <v>96.08621347328979</v>
-      </c>
-      <c r="I12" t="n">
-        <v>57.53030467618054</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>35.51332045641024</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
         <v>102.2314789055197</v>
       </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
         <v>102.2314789055197</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="13">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.05922438752579</v>
+        <v>55.05922438752574</v>
       </c>
       <c r="S14" t="n">
         <v>102.2314789055197</v>
@@ -28454,10 +28454,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>95.51563814546105</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>95.51563814546118</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.05922438752579</v>
+        <v>55.0592243875257</v>
       </c>
       <c r="S17" t="n">
         <v>172.7786715121887</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.85006423600242</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>54.66557390945863</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>95.51563814546118</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="C19" t="n">
-        <v>103.4189857568271</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9829564507831</v>
+        <v>100.9034928415682</v>
       </c>
       <c r="H19" t="n">
         <v>155.577576843479</v>
       </c>
       <c r="I19" t="n">
-        <v>135.3151662150742</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.95172126025998</v>
+        <v>41.95172126025993</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S19" t="n">
         <v>172.7786715121887</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.05922438752578</v>
+        <v>55.0592243875257</v>
       </c>
       <c r="S20" t="n">
         <v>172.7786715121887</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>95.51563814546107</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.51563814546104</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28980,7 +28980,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J22" t="n">
-        <v>41.95172126025997</v>
+        <v>41.95172126025993</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,10 +29004,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>136.8938057381793</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S22" t="n">
-        <v>144.1627132000889</v>
+        <v>139.3038515308362</v>
       </c>
       <c r="T22" t="n">
         <v>172.7786715121887</v>
@@ -29016,7 +29016,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="W22" t="n">
         <v>172.7786715121887</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.05922438752578</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S23" t="n">
         <v>172.7786715121887</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>95.51563814546107</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>95.51563814546029</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.2295686863393</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29217,7 +29217,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S25" t="n">
-        <v>172.7786715121887</v>
+        <v>139.3038515308362</v>
       </c>
       <c r="T25" t="n">
         <v>172.7786715121887</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L26" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N26" t="n">
-        <v>91.65670430876293</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O26" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876236</v>
       </c>
       <c r="P26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055205</v>
       </c>
       <c r="M28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N28" t="n">
-        <v>102.2314789055195</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>102.2314789055197</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876261</v>
       </c>
       <c r="K29" t="n">
         <v>102.2314789055197</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M29" t="n">
-        <v>91.6567043087631</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="N29" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>102.2314789055197</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M32" t="n">
-        <v>91.65670430876287</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P32" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876258</v>
       </c>
       <c r="R32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M34" t="n">
-        <v>102.2314789055193</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055203</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="F35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="G35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I35" t="n">
         <v>149.8092072208349</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.05922438752578</v>
+        <v>55.05922438752573</v>
       </c>
       <c r="S35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y35" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="36">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I37" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J37" t="n">
-        <v>41.95172126025997</v>
+        <v>41.95172126025995</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.41928851409257</v>
+        <v>4.931967856766674</v>
       </c>
       <c r="R37" t="n">
-        <v>136.8938057381793</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S37" t="n">
-        <v>139.006370325521</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="F38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="G38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I38" t="n">
         <v>149.8092072208349</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.05922438752578</v>
+        <v>55.05922438752573</v>
       </c>
       <c r="S38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I40" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J40" t="n">
-        <v>29.46440060293354</v>
+        <v>41.95172126025995</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.41928851409257</v>
+        <v>17.41928851409254</v>
       </c>
       <c r="R40" t="n">
-        <v>136.8938057381793</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T40" t="n">
-        <v>151.4936909828474</v>
+        <v>139.0063703255211</v>
       </c>
       <c r="U40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="C41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="D41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="E41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="F41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="G41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="H41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="I41" t="n">
         <v>149.8092072208349</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.05922438752578</v>
+        <v>55.05922438752573</v>
       </c>
       <c r="S41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="T41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="U41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="V41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="W41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="X41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
     </row>
     <row r="42">
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="C43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="D43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="I43" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J43" t="n">
-        <v>41.95172126025997</v>
+        <v>41.95172126025995</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.41928851409257</v>
+        <v>4.931967856765548</v>
       </c>
       <c r="R43" t="n">
-        <v>136.8938057381793</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="T43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="U43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="V43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="W43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="X43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.0063703255212</v>
+        <v>151.4936909828474</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.05922438752578</v>
+        <v>55.05922438752573</v>
       </c>
       <c r="S44" t="n">
         <v>151.4936909828473</v>
@@ -30873,10 +30873,10 @@
         <v>151.4936909828473</v>
       </c>
       <c r="I46" t="n">
-        <v>135.3151662150742</v>
+        <v>122.8278455577482</v>
       </c>
       <c r="J46" t="n">
-        <v>41.95172126025997</v>
+        <v>41.95172126025995</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,16 +30897,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.41928851409257</v>
+        <v>17.41928851409254</v>
       </c>
       <c r="R46" t="n">
-        <v>136.8938057381793</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S46" t="n">
         <v>151.4936909828473</v>
       </c>
       <c r="T46" t="n">
-        <v>139.0063703255212</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U46" t="n">
         <v>151.4936909828473</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H11" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I11" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J11" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K11" t="n">
-        <v>70.21264120905168</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L11" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M11" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N11" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O11" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P11" t="n">
-        <v>79.37396162977225</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R11" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S11" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T11" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H12" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I12" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J12" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L12" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M12" t="n">
-        <v>74.8298694253088</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N12" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O12" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P12" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.69860688513394</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R12" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S12" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T12" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H13" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I13" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J13" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K13" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L13" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M13" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N13" t="n">
-        <v>37.88874092453674</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O13" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P13" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R13" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S13" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T13" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.551969900329602</v>
+        <v>0.5519699003296028</v>
       </c>
       <c r="H14" t="n">
-        <v>5.652861741750538</v>
+        <v>5.652861741750546</v>
       </c>
       <c r="I14" t="n">
-        <v>21.279819582457</v>
+        <v>21.27981958245703</v>
       </c>
       <c r="J14" t="n">
-        <v>46.8477553280996</v>
+        <v>46.84775532809967</v>
       </c>
       <c r="K14" t="n">
-        <v>70.21264120905167</v>
+        <v>70.21264120905177</v>
       </c>
       <c r="L14" t="n">
-        <v>87.10499004626375</v>
+        <v>87.10499004626388</v>
       </c>
       <c r="M14" t="n">
-        <v>96.9210847612503</v>
+        <v>96.92108476125044</v>
       </c>
       <c r="N14" t="n">
-        <v>98.4893692405618</v>
+        <v>98.48936924056194</v>
       </c>
       <c r="O14" t="n">
-        <v>93.00071854415931</v>
+        <v>93.00071854415944</v>
       </c>
       <c r="P14" t="n">
-        <v>79.37396162977224</v>
+        <v>79.37396162977235</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.60653957421835</v>
+        <v>59.60653957421844</v>
       </c>
       <c r="R14" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S14" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T14" t="n">
-        <v>2.416248238692834</v>
+        <v>2.416248238692837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04415759202636815</v>
+        <v>0.04415759202636822</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2953299329923906</v>
+        <v>0.295329932992391</v>
       </c>
       <c r="H15" t="n">
-        <v>2.852265405479141</v>
+        <v>2.852265405479145</v>
       </c>
       <c r="I15" t="n">
-        <v>10.16815778065906</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J15" t="n">
-        <v>27.90220213416266</v>
+        <v>27.9022021341627</v>
       </c>
       <c r="K15" t="n">
-        <v>47.68930764465283</v>
+        <v>47.6893076446529</v>
       </c>
       <c r="L15" t="n">
-        <v>64.12415935433464</v>
+        <v>64.12415935433474</v>
       </c>
       <c r="M15" t="n">
-        <v>74.82986942530879</v>
+        <v>74.82986942530889</v>
       </c>
       <c r="N15" t="n">
-        <v>76.81039340577092</v>
+        <v>76.81039340577104</v>
       </c>
       <c r="O15" t="n">
-        <v>70.2665038378869</v>
+        <v>70.266503837887</v>
       </c>
       <c r="P15" t="n">
-        <v>56.3950641343101</v>
+        <v>56.39506413431018</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.69860688513393</v>
+        <v>37.69860688513399</v>
       </c>
       <c r="R15" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S15" t="n">
-        <v>5.485623974661286</v>
+        <v>5.485623974661294</v>
       </c>
       <c r="T15" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453896</v>
       </c>
       <c r="H16" t="n">
-        <v>2.201341925039917</v>
+        <v>2.20134192503992</v>
       </c>
       <c r="I16" t="n">
-        <v>7.445847738274073</v>
+        <v>7.445847738274083</v>
       </c>
       <c r="J16" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970904</v>
       </c>
       <c r="K16" t="n">
-        <v>28.76600184254613</v>
+        <v>28.76600184254617</v>
       </c>
       <c r="L16" t="n">
-        <v>36.81057857065724</v>
+        <v>36.8105785706573</v>
       </c>
       <c r="M16" t="n">
-        <v>38.81159387879678</v>
+        <v>38.81159387879684</v>
       </c>
       <c r="N16" t="n">
-        <v>37.88874092453673</v>
+        <v>37.88874092453678</v>
       </c>
       <c r="O16" t="n">
-        <v>34.99638471423376</v>
+        <v>34.99638471423381</v>
       </c>
       <c r="P16" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R16" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358633</v>
       </c>
       <c r="S16" t="n">
-        <v>4.314900276381919</v>
+        <v>4.314900276381925</v>
       </c>
       <c r="T16" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.01350516518429399</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.551969900329602</v>
+        <v>0.5519699003296035</v>
       </c>
       <c r="H17" t="n">
-        <v>5.652861741750538</v>
+        <v>5.652861741750553</v>
       </c>
       <c r="I17" t="n">
-        <v>21.279819582457</v>
+        <v>21.27981958245706</v>
       </c>
       <c r="J17" t="n">
-        <v>46.8477553280996</v>
+        <v>46.84775532809973</v>
       </c>
       <c r="K17" t="n">
-        <v>70.21264120905167</v>
+        <v>70.21264120905185</v>
       </c>
       <c r="L17" t="n">
-        <v>87.10499004626375</v>
+        <v>87.10499004626398</v>
       </c>
       <c r="M17" t="n">
-        <v>96.9210847612503</v>
+        <v>96.92108476125057</v>
       </c>
       <c r="N17" t="n">
-        <v>98.4893692405618</v>
+        <v>98.48936924056206</v>
       </c>
       <c r="O17" t="n">
-        <v>93.00071854415931</v>
+        <v>93.00071854415955</v>
       </c>
       <c r="P17" t="n">
-        <v>79.37396162977224</v>
+        <v>79.37396162977245</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.60653957421835</v>
+        <v>59.60653957421852</v>
       </c>
       <c r="R17" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157949</v>
       </c>
       <c r="S17" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376085</v>
       </c>
       <c r="T17" t="n">
-        <v>2.416248238692834</v>
+        <v>2.416248238692841</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04415759202636815</v>
+        <v>0.04415759202636827</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2953299329923906</v>
+        <v>0.2953299329923914</v>
       </c>
       <c r="H18" t="n">
-        <v>2.852265405479141</v>
+        <v>2.852265405479149</v>
       </c>
       <c r="I18" t="n">
-        <v>10.16815778065906</v>
+        <v>10.16815778065909</v>
       </c>
       <c r="J18" t="n">
-        <v>27.90220213416266</v>
+        <v>27.90220213416274</v>
       </c>
       <c r="K18" t="n">
-        <v>47.68930764465283</v>
+        <v>47.68930764465296</v>
       </c>
       <c r="L18" t="n">
-        <v>64.12415935433464</v>
+        <v>64.12415935433481</v>
       </c>
       <c r="M18" t="n">
-        <v>74.82986942530879</v>
+        <v>74.82986942530898</v>
       </c>
       <c r="N18" t="n">
-        <v>76.81039340577092</v>
+        <v>76.81039340577114</v>
       </c>
       <c r="O18" t="n">
-        <v>70.2665038378869</v>
+        <v>70.26650383788709</v>
       </c>
       <c r="P18" t="n">
-        <v>56.3950641343101</v>
+        <v>56.39506413431025</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.69860688513393</v>
+        <v>37.69860688513403</v>
       </c>
       <c r="R18" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000129</v>
       </c>
       <c r="S18" t="n">
-        <v>5.485623974661286</v>
+        <v>5.485623974661301</v>
       </c>
       <c r="T18" t="n">
-        <v>1.190386879035118</v>
+        <v>1.190386879035121</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.0194296008547626</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453899</v>
       </c>
       <c r="H19" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039923</v>
       </c>
       <c r="I19" t="n">
-        <v>7.445847738274073</v>
+        <v>7.445847738274092</v>
       </c>
       <c r="J19" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970907</v>
       </c>
       <c r="K19" t="n">
-        <v>28.76600184254613</v>
+        <v>28.76600184254621</v>
       </c>
       <c r="L19" t="n">
-        <v>36.81057857065724</v>
+        <v>36.81057857065734</v>
       </c>
       <c r="M19" t="n">
-        <v>38.81159387879678</v>
+        <v>38.81159387879689</v>
       </c>
       <c r="N19" t="n">
-        <v>37.88874092453673</v>
+        <v>37.88874092453683</v>
       </c>
       <c r="O19" t="n">
-        <v>34.99638471423376</v>
+        <v>34.99638471423386</v>
       </c>
       <c r="P19" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530788</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875534</v>
       </c>
       <c r="R19" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358635</v>
       </c>
       <c r="S19" t="n">
-        <v>4.314900276381919</v>
+        <v>4.31490027638193</v>
       </c>
       <c r="T19" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.01350516518429401</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.5519699003296035</v>
       </c>
       <c r="H20" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750553</v>
       </c>
       <c r="I20" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245706</v>
       </c>
       <c r="J20" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809973</v>
       </c>
       <c r="K20" t="n">
-        <v>70.21264120905168</v>
+        <v>70.21264120905185</v>
       </c>
       <c r="L20" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626398</v>
       </c>
       <c r="M20" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125057</v>
       </c>
       <c r="N20" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056206</v>
       </c>
       <c r="O20" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415955</v>
       </c>
       <c r="P20" t="n">
-        <v>79.37396162977225</v>
+        <v>79.37396162977245</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421852</v>
       </c>
       <c r="R20" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157949</v>
       </c>
       <c r="S20" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376085</v>
       </c>
       <c r="T20" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692841</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636827</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923914</v>
       </c>
       <c r="H21" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479149</v>
       </c>
       <c r="I21" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065909</v>
       </c>
       <c r="J21" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416274</v>
       </c>
       <c r="K21" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465296</v>
       </c>
       <c r="L21" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433481</v>
       </c>
       <c r="M21" t="n">
-        <v>74.8298694253088</v>
+        <v>74.82986942530898</v>
       </c>
       <c r="N21" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577114</v>
       </c>
       <c r="O21" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788709</v>
       </c>
       <c r="P21" t="n">
-        <v>56.39506413431011</v>
+        <v>56.39506413431025</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.69860688513394</v>
+        <v>37.69860688513403</v>
       </c>
       <c r="R21" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000129</v>
       </c>
       <c r="S21" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661301</v>
       </c>
       <c r="T21" t="n">
-        <v>1.190386879035118</v>
+        <v>1.190386879035121</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.0194296008547626</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453899</v>
       </c>
       <c r="H22" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039923</v>
       </c>
       <c r="I22" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274092</v>
       </c>
       <c r="J22" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970907</v>
       </c>
       <c r="K22" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254621</v>
       </c>
       <c r="L22" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065734</v>
       </c>
       <c r="M22" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879689</v>
       </c>
       <c r="N22" t="n">
-        <v>37.88874092453674</v>
+        <v>37.88874092453683</v>
       </c>
       <c r="O22" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423386</v>
       </c>
       <c r="P22" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530788</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875534</v>
       </c>
       <c r="R22" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358635</v>
       </c>
       <c r="S22" t="n">
-        <v>4.31490027638192</v>
+        <v>4.31490027638193</v>
       </c>
       <c r="T22" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.01350516518429401</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H23" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I23" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J23" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K23" t="n">
-        <v>70.21264120905168</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L23" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M23" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N23" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O23" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P23" t="n">
-        <v>79.37396162977225</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R23" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S23" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T23" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H24" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I24" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J24" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L24" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M24" t="n">
-        <v>74.8298694253088</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N24" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O24" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P24" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.69860688513394</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R24" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S24" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T24" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H25" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I25" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J25" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K25" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L25" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M25" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N25" t="n">
-        <v>37.88874092453674</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O25" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P25" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R25" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S25" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T25" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H26" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I26" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J26" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K26" t="n">
-        <v>70.21264120905168</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L26" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M26" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N26" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O26" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P26" t="n">
-        <v>79.37396162977225</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R26" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S26" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T26" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H27" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I27" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J27" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K27" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L27" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M27" t="n">
-        <v>74.8298694253088</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N27" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O27" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P27" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.69860688513394</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R27" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S27" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T27" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H28" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I28" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J28" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K28" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L28" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M28" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N28" t="n">
-        <v>37.88874092453674</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O28" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P28" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R28" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S28" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T28" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.551969900329602</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H29" t="n">
-        <v>5.652861741750538</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I29" t="n">
-        <v>21.279819582457</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J29" t="n">
-        <v>46.8477553280996</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K29" t="n">
-        <v>70.21264120905167</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L29" t="n">
-        <v>87.10499004626375</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M29" t="n">
-        <v>96.9210847612503</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N29" t="n">
-        <v>98.4893692405618</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O29" t="n">
-        <v>93.00071854415931</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P29" t="n">
-        <v>79.37396162977224</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.60653957421835</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R29" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S29" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T29" t="n">
-        <v>2.416248238692834</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04415759202636815</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2953299329923906</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H30" t="n">
-        <v>2.852265405479141</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I30" t="n">
-        <v>10.16815778065906</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J30" t="n">
-        <v>27.90220213416266</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K30" t="n">
-        <v>47.68930764465283</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L30" t="n">
-        <v>64.12415935433464</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M30" t="n">
-        <v>74.82986942530879</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N30" t="n">
-        <v>76.81039340577092</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O30" t="n">
-        <v>70.2665038378869</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P30" t="n">
-        <v>56.3950641343101</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.69860688513393</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R30" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S30" t="n">
-        <v>5.485623974661286</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T30" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H31" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I31" t="n">
-        <v>7.445847738274073</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J31" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K31" t="n">
-        <v>28.76600184254613</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L31" t="n">
-        <v>36.81057857065724</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M31" t="n">
-        <v>38.81159387879678</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N31" t="n">
-        <v>37.88874092453673</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O31" t="n">
-        <v>34.99638471423376</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P31" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R31" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S31" t="n">
-        <v>4.314900276381919</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T31" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H32" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I32" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J32" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K32" t="n">
-        <v>70.21264120905168</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L32" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M32" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N32" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O32" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P32" t="n">
-        <v>79.37396162977225</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R32" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S32" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T32" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H33" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I33" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J33" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L33" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M33" t="n">
-        <v>74.8298694253088</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N33" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O33" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P33" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.69860688513394</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R33" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S33" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T33" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H34" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I34" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J34" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K34" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L34" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M34" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N34" t="n">
-        <v>37.88874092453674</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O34" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P34" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R34" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S34" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T34" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H35" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I35" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J35" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K35" t="n">
-        <v>70.21264120905168</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L35" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M35" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N35" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O35" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P35" t="n">
-        <v>79.37396162977225</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R35" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S35" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T35" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H36" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I36" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J36" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L36" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M36" t="n">
-        <v>74.8298694253088</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N36" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O36" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P36" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.69860688513394</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R36" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S36" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T36" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H37" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I37" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J37" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K37" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L37" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M37" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N37" t="n">
-        <v>37.88874092453674</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O37" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P37" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R37" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S37" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T37" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H38" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I38" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J38" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K38" t="n">
-        <v>70.21264120905168</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L38" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M38" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N38" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O38" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P38" t="n">
-        <v>79.37396162977225</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R38" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S38" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T38" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H39" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I39" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J39" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L39" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M39" t="n">
-        <v>74.8298694253088</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N39" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O39" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P39" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.69860688513394</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R39" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S39" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T39" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H40" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I40" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J40" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K40" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L40" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M40" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N40" t="n">
-        <v>37.88874092453674</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O40" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P40" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R40" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S40" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T40" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H41" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I41" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K41" t="n">
-        <v>70.21264120905168</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L41" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M41" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N41" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O41" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P41" t="n">
-        <v>79.37396162977225</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R41" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S41" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T41" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H42" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I42" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J42" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L42" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M42" t="n">
-        <v>74.8298694253088</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N42" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O42" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P42" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.69860688513394</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R42" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S42" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T42" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H43" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I43" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J43" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K43" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L43" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M43" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N43" t="n">
-        <v>37.88874092453674</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O43" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P43" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R43" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S43" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T43" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5519699003296021</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H44" t="n">
-        <v>5.65286174175054</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I44" t="n">
-        <v>21.27981958245701</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84775532809961</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K44" t="n">
-        <v>70.21264120905168</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L44" t="n">
-        <v>87.10499004626377</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M44" t="n">
-        <v>96.92108476125033</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N44" t="n">
-        <v>98.48936924056181</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O44" t="n">
-        <v>93.00071854415933</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P44" t="n">
-        <v>79.37396162977225</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.60653957421837</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R44" t="n">
-        <v>34.6726792515794</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S44" t="n">
-        <v>12.57801410376082</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T44" t="n">
-        <v>2.416248238692835</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04415759202636816</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2953299329923907</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H45" t="n">
-        <v>2.852265405479142</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I45" t="n">
-        <v>10.16815778065907</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J45" t="n">
-        <v>27.90220213416267</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K45" t="n">
-        <v>47.68930764465284</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L45" t="n">
-        <v>64.12415935433465</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M45" t="n">
-        <v>74.8298694253088</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N45" t="n">
-        <v>76.81039340577094</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O45" t="n">
-        <v>70.26650383788692</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P45" t="n">
-        <v>56.39506413431011</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.69860688513394</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R45" t="n">
-        <v>18.33636198000124</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S45" t="n">
-        <v>5.485623974661288</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T45" t="n">
-        <v>1.190386879035118</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01942960085476255</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2475946950453893</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H46" t="n">
-        <v>2.201341925039917</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I46" t="n">
-        <v>7.445847738274074</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J46" t="n">
-        <v>17.50494493970902</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K46" t="n">
-        <v>28.76600184254614</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L46" t="n">
-        <v>36.81057857065725</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M46" t="n">
-        <v>38.81159387879679</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N46" t="n">
-        <v>37.88874092453674</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O46" t="n">
-        <v>34.99638471423377</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P46" t="n">
-        <v>29.9454529353078</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.73267941875528</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R46" t="n">
-        <v>11.13275783358632</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S46" t="n">
-        <v>4.31490027638192</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T46" t="n">
-        <v>1.057904606103027</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01350516518429398</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.5735576238629</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K11" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L11" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N11" t="n">
-        <v>262.2979706874952</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P11" t="n">
-        <v>309.8354732015432</v>
+        <v>232.9937344933677</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.9926544091042</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.76497641002746</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L12" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M12" t="n">
-        <v>172.130328896363</v>
+        <v>457.9591948032348</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P12" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.0638894968453</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.27975764525969</v>
+        <v>60.27975764525978</v>
       </c>
       <c r="K13" t="n">
-        <v>164.9411047325541</v>
+        <v>164.9411047325542</v>
       </c>
       <c r="L13" t="n">
-        <v>240.6653700016915</v>
+        <v>240.6653700016917</v>
       </c>
       <c r="M13" t="n">
-        <v>260.2284325091667</v>
+        <v>260.2284325091668</v>
       </c>
       <c r="N13" t="n">
-        <v>259.7387468498547</v>
+        <v>259.7387468498549</v>
       </c>
       <c r="O13" t="n">
-        <v>236.6860924032784</v>
+        <v>236.6860924032785</v>
       </c>
       <c r="P13" t="n">
-        <v>195.7814608591485</v>
+        <v>195.7814608591486</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.81219039142709</v>
+        <v>84.81219039142718</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>119.5735576238629</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7786735775191</v>
+        <v>8.738547661000965</v>
       </c>
       <c r="L14" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M14" t="n">
-        <v>190.0922378882557</v>
+        <v>494.1323638047736</v>
       </c>
       <c r="N14" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O14" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P14" t="n">
-        <v>309.8354732015432</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.9926544091042</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.76497641002746</v>
+        <v>88.7649764100275</v>
       </c>
       <c r="K15" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L15" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M15" t="n">
-        <v>564.7625497386688</v>
+        <v>564.7625497386689</v>
       </c>
       <c r="N15" t="n">
-        <v>15.80430316236601</v>
+        <v>15.80430316236578</v>
       </c>
       <c r="O15" t="n">
-        <v>466.4280702865241</v>
+        <v>466.4280702865242</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q15" t="n">
         <v>197.0638894968453</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.27975764525969</v>
+        <v>60.27975764525971</v>
       </c>
       <c r="K16" t="n">
         <v>164.9411047325541</v>
       </c>
       <c r="L16" t="n">
-        <v>240.6653700016915</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M16" t="n">
         <v>260.2284325091667</v>
       </c>
       <c r="N16" t="n">
-        <v>259.7387468498547</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O16" t="n">
         <v>236.6860924032784</v>
@@ -35823,7 +35823,7 @@
         <v>195.7814608591485</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.81219039142709</v>
+        <v>84.81219039142712</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K17" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L17" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M17" t="n">
-        <v>494.1323638047735</v>
+        <v>190.0922378882544</v>
       </c>
       <c r="N17" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039113</v>
       </c>
       <c r="O17" t="n">
-        <v>371.6122435220576</v>
+        <v>401.086157405608</v>
       </c>
       <c r="P17" t="n">
-        <v>309.8354732015432</v>
+        <v>309.8354732015434</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>154.9926544091044</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.76497641002746</v>
+        <v>88.76497641002753</v>
       </c>
       <c r="K18" t="n">
-        <v>279.4979465943384</v>
+        <v>279.4979465943385</v>
       </c>
       <c r="L18" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M18" t="n">
-        <v>564.7625497386688</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N18" t="n">
-        <v>15.80430316236601</v>
+        <v>15.80430316236463</v>
       </c>
       <c r="O18" t="n">
-        <v>466.4280702865241</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P18" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.0638894968453</v>
+        <v>197.0638894968454</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.70962582703443</v>
+        <v>62.7096258270345</v>
       </c>
       <c r="L19" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M19" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N19" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O19" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P19" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362887</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K20" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L20" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M20" t="n">
-        <v>494.1323638047735</v>
+        <v>190.0922378882544</v>
       </c>
       <c r="N20" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039113</v>
       </c>
       <c r="O20" t="n">
-        <v>401.0861574056078</v>
+        <v>401.086157405608</v>
       </c>
       <c r="P20" t="n">
-        <v>280.3615593179929</v>
+        <v>309.8354732015434</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>154.9926544091044</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.76497641002746</v>
+        <v>88.76497641002753</v>
       </c>
       <c r="K21" t="n">
-        <v>279.4979465943384</v>
+        <v>279.4979465943385</v>
       </c>
       <c r="L21" t="n">
-        <v>420.9676885940365</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N21" t="n">
-        <v>593.2403389846821</v>
+        <v>15.80430316236463</v>
       </c>
       <c r="O21" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P21" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.0638894968453</v>
+        <v>197.0638894968454</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.70962582703443</v>
+        <v>62.7096258270345</v>
       </c>
       <c r="L22" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M22" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N22" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O22" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P22" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362887</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>119.5735576238629</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K23" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L23" t="n">
-        <v>438.5043567987347</v>
+        <v>134.4642308822169</v>
       </c>
       <c r="M23" t="n">
-        <v>494.1323638047735</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N23" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O23" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P23" t="n">
-        <v>160.78800169413</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.76497641002746</v>
+        <v>76.09149032638074</v>
       </c>
       <c r="K24" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L24" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M24" t="n">
-        <v>564.7625497386689</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>15.80430316236578</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O24" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P24" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q24" t="n">
         <v>197.0638894968453</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.70962582703443</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L25" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M25" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N25" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O25" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P25" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>415.0101524830388</v>
       </c>
       <c r="L26" t="n">
-        <v>540.7358357042544</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M26" t="n">
-        <v>494.1323638047735</v>
+        <v>596.3638427102933</v>
       </c>
       <c r="N26" t="n">
-        <v>572.298961112674</v>
+        <v>582.8737357094308</v>
       </c>
       <c r="O26" t="n">
-        <v>503.3176363111274</v>
+        <v>492.7428617143703</v>
       </c>
       <c r="P26" t="n">
         <v>412.0669521070629</v>
@@ -36616,7 +36616,7 @@
         <v>257.2241333146239</v>
       </c>
       <c r="R26" t="n">
-        <v>47.1722545179939</v>
+        <v>47.17225451799387</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.76497641002746</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K27" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L27" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M27" t="n">
-        <v>84.78150641248676</v>
+        <v>84.78150641248641</v>
       </c>
       <c r="N27" t="n">
-        <v>593.2403389846821</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O27" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P27" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q27" t="n">
         <v>197.0638894968453</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.27975764525971</v>
+        <v>60.27975764525965</v>
       </c>
       <c r="K28" t="n">
         <v>164.9411047325541</v>
       </c>
       <c r="L28" t="n">
-        <v>240.6653700016916</v>
+        <v>240.6653700016925</v>
       </c>
       <c r="M28" t="n">
         <v>260.2284325091667</v>
       </c>
       <c r="N28" t="n">
-        <v>259.7387468498546</v>
+        <v>259.7387468498547</v>
       </c>
       <c r="O28" t="n">
-        <v>236.6860924032784</v>
+        <v>236.6860924032783</v>
       </c>
       <c r="P28" t="n">
         <v>195.7814608591485</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.81219039142711</v>
+        <v>84.81219039142707</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8050365293826</v>
+        <v>211.2302619326256</v>
       </c>
       <c r="K29" t="n">
         <v>415.0101524830388</v>
       </c>
       <c r="L29" t="n">
-        <v>438.5043567987347</v>
+        <v>540.7358357042546</v>
       </c>
       <c r="M29" t="n">
-        <v>585.7890681135366</v>
+        <v>596.3638427102933</v>
       </c>
       <c r="N29" t="n">
-        <v>582.8737357094307</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O29" t="n">
-        <v>503.3176363111274</v>
+        <v>503.3176363111276</v>
       </c>
       <c r="P29" t="n">
-        <v>412.0669521070628</v>
+        <v>412.066952107063</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.2241333146239</v>
+        <v>257.224133314624</v>
       </c>
       <c r="R29" t="n">
-        <v>47.17225451799391</v>
+        <v>47.17225451799393</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.76497641002746</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L30" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M30" t="n">
-        <v>564.7625497386688</v>
+        <v>564.7625497386689</v>
       </c>
       <c r="N30" t="n">
-        <v>113.2592956585001</v>
+        <v>202.0242720685272</v>
       </c>
       <c r="O30" t="n">
-        <v>466.4280702865241</v>
+        <v>466.4280702865242</v>
       </c>
       <c r="P30" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q30" t="n">
         <v>197.0638894968453</v>
@@ -36990,7 +36990,7 @@
         <v>60.27975764525971</v>
       </c>
       <c r="K31" t="n">
-        <v>164.9411047325541</v>
+        <v>164.9411047325542</v>
       </c>
       <c r="L31" t="n">
         <v>240.6653700016916</v>
@@ -37075,22 +37075,22 @@
         <v>540.7358357042544</v>
       </c>
       <c r="M32" t="n">
-        <v>585.7890681135364</v>
+        <v>596.3638427102933</v>
       </c>
       <c r="N32" t="n">
-        <v>480.642256803911</v>
+        <v>582.8737357094308</v>
       </c>
       <c r="O32" t="n">
-        <v>503.3176363111274</v>
+        <v>503.3176363111275</v>
       </c>
       <c r="P32" t="n">
-        <v>412.0669521070629</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.2241333146239</v>
+        <v>246.6493587178669</v>
       </c>
       <c r="R32" t="n">
-        <v>47.17225451799391</v>
+        <v>47.17225451799388</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.76497641002746</v>
+        <v>88.7649764100275</v>
       </c>
       <c r="K33" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L33" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M33" t="n">
         <v>564.7625497386689</v>
@@ -37163,7 +37163,7 @@
         <v>466.4280702865242</v>
       </c>
       <c r="P33" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q33" t="n">
         <v>197.0638894968453</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.27975764525972</v>
+        <v>60.27975764525966</v>
       </c>
       <c r="K34" t="n">
         <v>164.9411047325541</v>
       </c>
       <c r="L34" t="n">
-        <v>240.6653700016916</v>
+        <v>240.6653700016915</v>
       </c>
       <c r="M34" t="n">
-        <v>260.2284325091663</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N34" t="n">
-        <v>259.7387468498548</v>
+        <v>259.7387468498547</v>
       </c>
       <c r="O34" t="n">
         <v>236.6860924032784</v>
       </c>
       <c r="P34" t="n">
-        <v>195.7814608591485</v>
+        <v>195.7814608591491</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.81219039142712</v>
+        <v>84.81219039142707</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>119.5735576238629</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K35" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L35" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M35" t="n">
-        <v>494.1323638047735</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N35" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O35" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P35" t="n">
-        <v>309.8354732015432</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.9926544091042</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.76497641002746</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L36" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M36" t="n">
         <v>564.7625497386689</v>
       </c>
       <c r="N36" t="n">
-        <v>113.2592956584998</v>
+        <v>202.0242720685272</v>
       </c>
       <c r="O36" t="n">
         <v>466.4280702865242</v>
       </c>
       <c r="P36" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q36" t="n">
         <v>197.0638894968453</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.70962582703443</v>
+        <v>62.70962582703447</v>
       </c>
       <c r="L37" t="n">
         <v>138.4338910961719</v>
       </c>
       <c r="M37" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N37" t="n">
         <v>157.5072679443351</v>
@@ -37479,7 +37479,7 @@
         <v>134.4546134977587</v>
       </c>
       <c r="P37" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362884</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>119.5735576238629</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K38" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L38" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M38" t="n">
-        <v>494.1323638047735</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N38" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O38" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P38" t="n">
-        <v>309.8354732015432</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.9926544091042</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.76497641002746</v>
+        <v>88.7649764100275</v>
       </c>
       <c r="K39" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L39" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M39" t="n">
         <v>564.7625497386689</v>
       </c>
       <c r="N39" t="n">
-        <v>113.2592956584998</v>
+        <v>113.2592956584994</v>
       </c>
       <c r="O39" t="n">
         <v>466.4280702865242</v>
       </c>
       <c r="P39" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q39" t="n">
         <v>197.0638894968453</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.70962582703443</v>
+        <v>62.70962582703447</v>
       </c>
       <c r="L40" t="n">
         <v>138.4338910961719</v>
       </c>
       <c r="M40" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N40" t="n">
         <v>157.5072679443351</v>
@@ -37716,7 +37716,7 @@
         <v>134.4546134977587</v>
       </c>
       <c r="P40" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362884</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>119.5735576238629</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L41" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1323638047735</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N41" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O41" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P41" t="n">
-        <v>309.8354732015432</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.9926544091042</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.76497641002746</v>
+        <v>88.7649764100275</v>
       </c>
       <c r="K42" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L42" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M42" t="n">
         <v>564.7625497386689</v>
       </c>
       <c r="N42" t="n">
-        <v>113.2592956584998</v>
+        <v>113.2592956584994</v>
       </c>
       <c r="O42" t="n">
         <v>466.4280702865242</v>
       </c>
       <c r="P42" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q42" t="n">
         <v>197.0638894968453</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.70962582703443</v>
+        <v>62.70962582703447</v>
       </c>
       <c r="L43" t="n">
         <v>138.4338910961719</v>
       </c>
       <c r="M43" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N43" t="n">
         <v>157.5072679443351</v>
@@ -37953,7 +37953,7 @@
         <v>134.4546134977587</v>
       </c>
       <c r="P43" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362884</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>119.5735576238629</v>
+        <v>119.5735576238627</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7786735775191</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L44" t="n">
-        <v>438.5043567987347</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M44" t="n">
-        <v>494.1323638047733</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N44" t="n">
-        <v>480.642256803911</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O44" t="n">
-        <v>401.0861574056078</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P44" t="n">
-        <v>309.8354732015432</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.9926544091042</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.76497641002746</v>
+        <v>88.7649764100275</v>
       </c>
       <c r="K45" t="n">
         <v>279.4979465943384</v>
       </c>
       <c r="L45" t="n">
-        <v>433.6411746776838</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M45" t="n">
         <v>564.7625497386689</v>
       </c>
       <c r="N45" t="n">
-        <v>113.2592956584998</v>
+        <v>113.2592956584994</v>
       </c>
       <c r="O45" t="n">
         <v>466.4280702865242</v>
       </c>
       <c r="P45" t="n">
-        <v>361.5424573420851</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q45" t="n">
         <v>197.0638894968453</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.70962582703443</v>
+        <v>62.70962582703447</v>
       </c>
       <c r="L46" t="n">
         <v>138.4338910961719</v>
       </c>
       <c r="M46" t="n">
-        <v>157.996953603647</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N46" t="n">
         <v>157.5072679443351</v>
@@ -38190,7 +38190,7 @@
         <v>134.4546134977587</v>
       </c>
       <c r="P46" t="n">
-        <v>93.5499819536288</v>
+        <v>93.54998195362884</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
